--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1490" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF1CA73E-40B9-44E2-9907-A4353CBB53C5}"/>
+  <xr:revisionPtr revIDLastSave="1494" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4949FB1-3E6E-4C1D-9CD5-4F8D0DF79E87}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Unk forb</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Native</t>
   </si>
   <si>
@@ -2202,6 +2199,9 @@
   </si>
   <si>
     <t>local Bouteloua species (unknown)</t>
+  </si>
+  <si>
+    <t>CodeOriginal</t>
   </si>
 </sst>
 </file>
@@ -2366,6 +2366,20 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> Master.xlsx. I added Native column.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Codes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> are same ones from Master.xlsx (CodeOriginal).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2705,7 +2719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A407" activeCellId="1" sqref="A399:C399 A407:C407"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,27 +2733,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -2747,13 +2761,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -2761,13 +2775,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -2775,13 +2789,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -2789,13 +2803,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -2803,13 +2817,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -2817,13 +2831,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -2831,13 +2845,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -2845,13 +2859,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -2859,13 +2873,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -2873,13 +2887,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -2887,13 +2901,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -2901,13 +2915,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -2915,13 +2929,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -2929,13 +2943,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -2943,13 +2957,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -2957,13 +2971,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -2971,13 +2985,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -2985,13 +2999,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -2999,13 +3013,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3013,13 +3027,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -3027,13 +3041,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3041,13 +3055,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3055,13 +3069,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -3069,13 +3083,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -3083,13 +3097,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -3097,13 +3111,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -3111,13 +3125,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -3125,13 +3139,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -3139,13 +3153,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -3153,13 +3167,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -3167,13 +3181,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -3181,13 +3195,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -3195,13 +3209,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -3209,13 +3223,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -3223,13 +3237,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -3237,13 +3251,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -3251,13 +3265,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -3265,13 +3279,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -3279,13 +3293,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -3293,13 +3307,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -3307,13 +3321,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
         <v>93</v>
       </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -3321,13 +3335,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -3335,13 +3349,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -3349,13 +3363,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -3363,13 +3377,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -3377,13 +3391,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -3391,13 +3405,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -3405,13 +3419,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -3419,13 +3433,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
         <v>109</v>
       </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -3433,13 +3447,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -3447,13 +3461,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -3461,13 +3475,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
         <v>115</v>
       </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -3475,13 +3489,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="B55" t="s">
-        <v>118</v>
-      </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -3489,13 +3503,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -3503,13 +3517,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
         <v>121</v>
       </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -3517,13 +3531,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -3531,13 +3545,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -3545,13 +3559,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -3559,13 +3573,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -3573,13 +3587,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
         <v>131</v>
       </c>
-      <c r="B62" t="s">
-        <v>132</v>
-      </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -3587,13 +3601,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
         <v>133</v>
       </c>
-      <c r="B63" t="s">
-        <v>134</v>
-      </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -3601,13 +3615,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" t="s">
-        <v>136</v>
-      </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -3615,13 +3629,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
         <v>137</v>
       </c>
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -3629,13 +3643,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
         <v>139</v>
       </c>
-      <c r="B66" t="s">
-        <v>140</v>
-      </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -3643,13 +3657,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
         <v>141</v>
       </c>
-      <c r="B67" t="s">
-        <v>142</v>
-      </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -3657,13 +3671,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -3671,13 +3685,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -3685,13 +3699,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -3699,13 +3713,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -3713,13 +3727,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -3727,13 +3741,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -3741,13 +3755,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s">
         <v>154</v>
       </c>
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -3755,13 +3769,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -3769,13 +3783,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
         <v>158</v>
       </c>
-      <c r="B76" t="s">
-        <v>159</v>
-      </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -3783,13 +3797,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -3797,13 +3811,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -3811,13 +3825,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" t="s">
         <v>165</v>
       </c>
-      <c r="B79" t="s">
-        <v>166</v>
-      </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -3825,13 +3839,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" t="s">
         <v>167</v>
       </c>
-      <c r="B80" t="s">
-        <v>168</v>
-      </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -3839,13 +3853,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -3853,13 +3867,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -3867,13 +3881,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -3881,13 +3895,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s">
         <v>174</v>
       </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -3895,13 +3909,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -3909,13 +3923,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="C86" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -3923,13 +3937,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -3937,13 +3951,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
         <v>182</v>
       </c>
-      <c r="B88" t="s">
-        <v>183</v>
-      </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -3951,13 +3965,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -3965,13 +3979,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -3979,13 +3993,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -3993,13 +4007,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -4007,13 +4021,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
         <v>192</v>
       </c>
-      <c r="B93" t="s">
-        <v>193</v>
-      </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -4021,13 +4035,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -4035,13 +4049,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -4049,13 +4063,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -4063,13 +4077,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
         <v>200</v>
       </c>
-      <c r="B97" t="s">
-        <v>201</v>
-      </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -4077,13 +4091,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -4091,13 +4105,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" t="s">
         <v>205</v>
-      </c>
-      <c r="C99" t="s">
-        <v>206</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -4105,13 +4119,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -4119,13 +4133,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
         <v>209</v>
       </c>
-      <c r="B101" t="s">
-        <v>210</v>
-      </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
         <v>0</v>
@@ -4133,13 +4147,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" t="s">
         <v>211</v>
       </c>
-      <c r="B102" t="s">
-        <v>212</v>
-      </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
         <v>0</v>
@@ -4147,13 +4161,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
@@ -4161,13 +4175,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
         <v>0</v>
@@ -4175,13 +4189,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D105" t="s">
         <v>0</v>
@@ -4189,13 +4203,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D106" t="s">
         <v>0</v>
@@ -4203,13 +4217,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
         <v>0</v>
@@ -4217,13 +4231,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="s">
-        <v>217</v>
-      </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
         <v>0</v>
@@ -4231,13 +4245,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>219</v>
-      </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
         <v>0</v>
@@ -4245,13 +4259,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
         <v>0</v>
@@ -4259,13 +4273,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
@@ -4273,13 +4287,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
         <v>220</v>
       </c>
-      <c r="B112" t="s">
-        <v>221</v>
-      </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
         <v>0</v>
@@ -4287,13 +4301,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
         <v>222</v>
       </c>
-      <c r="B113" t="s">
-        <v>223</v>
-      </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
         <v>0</v>
@@ -4301,13 +4315,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" t="s">
         <v>224</v>
       </c>
-      <c r="B114" t="s">
-        <v>225</v>
-      </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
         <v>0</v>
@@ -4315,13 +4329,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
@@ -4329,13 +4343,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116" t="s">
         <v>109</v>
       </c>
-      <c r="B116" t="s">
-        <v>110</v>
-      </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
         <v>0</v>
@@ -4343,13 +4357,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
@@ -4357,13 +4371,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" t="s">
-        <v>235</v>
-      </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
         <v>0</v>
@@ -4371,13 +4385,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
         <v>236</v>
       </c>
-      <c r="B119" t="s">
-        <v>237</v>
-      </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
         <v>0</v>
@@ -4385,13 +4399,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
         <v>238</v>
       </c>
-      <c r="B120" t="s">
-        <v>239</v>
-      </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
         <v>0</v>
@@ -4399,13 +4413,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
         <v>0</v>
@@ -4413,13 +4427,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D122" t="s">
         <v>0</v>
@@ -4427,13 +4441,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
         <v>0</v>
@@ -4441,13 +4455,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
         <v>0</v>
@@ -4455,13 +4469,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
         <v>246</v>
       </c>
-      <c r="B125" t="s">
-        <v>247</v>
-      </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
         <v>0</v>
@@ -4469,13 +4483,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
         <v>0</v>
@@ -4483,13 +4497,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s">
         <v>249</v>
       </c>
-      <c r="B127" t="s">
-        <v>250</v>
-      </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
         <v>0</v>
@@ -4497,13 +4511,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
         <v>251</v>
       </c>
-      <c r="B128" t="s">
-        <v>252</v>
-      </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
         <v>0</v>
@@ -4511,13 +4525,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C129" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D129" t="s">
         <v>0</v>
@@ -4525,13 +4539,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D130" t="s">
         <v>0</v>
@@ -4539,13 +4553,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B131" t="s">
         <v>254</v>
       </c>
-      <c r="B131" t="s">
-        <v>255</v>
-      </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
         <v>0</v>
@@ -4553,13 +4567,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
         <v>0</v>
@@ -4567,13 +4581,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
         <v>13</v>
       </c>
-      <c r="B133" t="s">
-        <v>14</v>
-      </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -4581,13 +4595,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -4595,13 +4609,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" t="s">
         <v>260</v>
       </c>
-      <c r="B135" t="s">
-        <v>261</v>
-      </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -4609,13 +4623,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" t="s">
         <v>262</v>
       </c>
-      <c r="B136" t="s">
-        <v>263</v>
-      </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -4623,13 +4637,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -4637,13 +4651,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -4651,13 +4665,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" t="s">
         <v>85</v>
       </c>
-      <c r="B139" t="s">
-        <v>86</v>
-      </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -4665,13 +4679,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -4679,13 +4693,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" t="s">
         <v>266</v>
       </c>
-      <c r="B141" t="s">
-        <v>267</v>
-      </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -4693,13 +4707,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" t="s">
         <v>97</v>
       </c>
-      <c r="B142" t="s">
-        <v>98</v>
-      </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -4707,13 +4721,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -4721,13 +4735,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" t="s">
         <v>268</v>
       </c>
-      <c r="B144" t="s">
-        <v>269</v>
-      </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -4735,13 +4749,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -4749,13 +4763,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>114</v>
+      </c>
+      <c r="B146" t="s">
         <v>115</v>
       </c>
-      <c r="B146" t="s">
-        <v>116</v>
-      </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -4763,13 +4777,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -4777,13 +4791,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" t="s">
         <v>121</v>
       </c>
-      <c r="B148" t="s">
-        <v>122</v>
-      </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -4791,13 +4805,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149" t="s">
         <v>129</v>
       </c>
-      <c r="B149" t="s">
-        <v>130</v>
-      </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
         <v>1</v>
@@ -4805,13 +4819,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>130</v>
+      </c>
+      <c r="B150" t="s">
         <v>131</v>
       </c>
-      <c r="B150" t="s">
-        <v>132</v>
-      </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -4819,13 +4833,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151" t="s">
         <v>135</v>
       </c>
-      <c r="B151" t="s">
-        <v>136</v>
-      </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -4833,13 +4847,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
         <v>270</v>
       </c>
-      <c r="B152" t="s">
-        <v>271</v>
-      </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -4847,13 +4861,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
         <v>156</v>
       </c>
-      <c r="B153" t="s">
-        <v>157</v>
-      </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -4861,13 +4875,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
         <v>158</v>
       </c>
-      <c r="B154" t="s">
-        <v>159</v>
-      </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -4875,13 +4889,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>271</v>
+      </c>
+      <c r="B155" t="s">
         <v>272</v>
       </c>
-      <c r="B155" t="s">
-        <v>273</v>
-      </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -4889,13 +4903,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" t="s">
         <v>167</v>
       </c>
-      <c r="B156" t="s">
-        <v>168</v>
-      </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -4903,13 +4917,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -4917,13 +4931,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -4931,13 +4945,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -4945,13 +4959,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" t="s">
         <v>278</v>
       </c>
-      <c r="B160" t="s">
-        <v>279</v>
-      </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -4959,13 +4973,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>195</v>
+      </c>
+      <c r="B161" t="s">
         <v>196</v>
       </c>
-      <c r="B161" t="s">
-        <v>197</v>
-      </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -4973,13 +4987,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>279</v>
+      </c>
+      <c r="B162" t="s">
         <v>280</v>
       </c>
-      <c r="B162" t="s">
-        <v>281</v>
-      </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -4987,13 +5001,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>197</v>
+      </c>
+      <c r="B163" t="s">
         <v>198</v>
       </c>
-      <c r="B163" t="s">
-        <v>199</v>
-      </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -5001,1388 +5015,1388 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B164" t="s">
         <v>282</v>
       </c>
-      <c r="B164" t="s">
-        <v>283</v>
-      </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B165" t="s">
         <v>284</v>
       </c>
-      <c r="B165" t="s">
-        <v>285</v>
-      </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B166" t="s">
         <v>286</v>
       </c>
-      <c r="B166" t="s">
-        <v>287</v>
-      </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B167" t="s">
         <v>288</v>
       </c>
-      <c r="B167" t="s">
-        <v>289</v>
-      </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B168" t="s">
         <v>290</v>
       </c>
-      <c r="B168" t="s">
-        <v>291</v>
-      </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B169" t="s">
         <v>292</v>
       </c>
-      <c r="B169" t="s">
-        <v>293</v>
-      </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B170" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B171" t="s">
         <v>296</v>
       </c>
-      <c r="B171" t="s">
-        <v>297</v>
-      </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B172" t="s">
         <v>298</v>
       </c>
-      <c r="B172" t="s">
-        <v>299</v>
-      </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B174" t="s">
         <v>301</v>
       </c>
-      <c r="B174" t="s">
-        <v>302</v>
-      </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B176" t="s">
         <v>303</v>
       </c>
-      <c r="B176" t="s">
-        <v>304</v>
-      </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D176" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B177" t="s">
         <v>305</v>
       </c>
-      <c r="B177" t="s">
-        <v>306</v>
-      </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B178" t="s">
         <v>307</v>
       </c>
-      <c r="B178" t="s">
-        <v>308</v>
-      </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B179" t="s">
         <v>309</v>
       </c>
-      <c r="B179" t="s">
-        <v>310</v>
-      </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B180" t="s">
         <v>311</v>
       </c>
-      <c r="B180" t="s">
-        <v>312</v>
-      </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B181" t="s">
         <v>313</v>
       </c>
-      <c r="B181" t="s">
-        <v>314</v>
-      </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B183" t="s">
         <v>315</v>
       </c>
-      <c r="B183" t="s">
-        <v>316</v>
-      </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" t="s">
         <v>317</v>
       </c>
-      <c r="B184" t="s">
-        <v>318</v>
-      </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C185" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D185" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B187" t="s">
         <v>321</v>
       </c>
-      <c r="B187" t="s">
-        <v>322</v>
-      </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B188" t="s">
         <v>323</v>
       </c>
-      <c r="B188" t="s">
-        <v>324</v>
-      </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B189" t="s">
         <v>325</v>
       </c>
-      <c r="B189" t="s">
-        <v>326</v>
-      </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B190" t="s">
         <v>327</v>
       </c>
-      <c r="B190" t="s">
-        <v>328</v>
-      </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B192" t="s">
         <v>330</v>
       </c>
-      <c r="B192" t="s">
-        <v>331</v>
-      </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B193" t="s">
         <v>87</v>
       </c>
-      <c r="B193" t="s">
-        <v>88</v>
-      </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B194" t="s">
         <v>93</v>
       </c>
-      <c r="B194" t="s">
-        <v>94</v>
-      </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" t="s">
         <v>332</v>
       </c>
-      <c r="B195" t="s">
-        <v>333</v>
-      </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B196" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B197" t="s">
         <v>335</v>
       </c>
-      <c r="B197" t="s">
-        <v>336</v>
-      </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D198" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D199" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B200" t="s">
         <v>339</v>
       </c>
-      <c r="B200" t="s">
-        <v>340</v>
-      </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B201" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B202" t="s">
         <v>343</v>
       </c>
-      <c r="B202" t="s">
-        <v>344</v>
-      </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B203" t="s">
         <v>345</v>
       </c>
-      <c r="B203" t="s">
-        <v>346</v>
-      </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D204" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B205" t="s">
         <v>349</v>
       </c>
-      <c r="B205" t="s">
-        <v>350</v>
-      </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B206" t="s">
         <v>351</v>
       </c>
-      <c r="B206" t="s">
-        <v>352</v>
-      </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B207" t="s">
         <v>353</v>
       </c>
-      <c r="B207" t="s">
-        <v>354</v>
-      </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B209" t="s">
         <v>356</v>
       </c>
-      <c r="B209" t="s">
-        <v>357</v>
-      </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B210" t="s">
         <v>358</v>
       </c>
-      <c r="B210" t="s">
-        <v>359</v>
-      </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="C211" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D211" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B212" t="s">
         <v>234</v>
       </c>
-      <c r="B212" t="s">
-        <v>235</v>
-      </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B213" t="s">
         <v>362</v>
       </c>
-      <c r="B213" t="s">
-        <v>363</v>
-      </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B214" t="s">
         <v>364</v>
       </c>
-      <c r="B214" t="s">
-        <v>365</v>
-      </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B215" t="s">
         <v>366</v>
       </c>
-      <c r="B215" t="s">
-        <v>367</v>
-      </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B216" t="s">
         <v>368</v>
       </c>
-      <c r="B216" t="s">
-        <v>369</v>
-      </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B217" t="s">
         <v>370</v>
       </c>
-      <c r="B217" t="s">
-        <v>371</v>
-      </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B218" t="s">
         <v>372</v>
       </c>
-      <c r="B218" t="s">
-        <v>373</v>
-      </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B219" t="s">
         <v>374</v>
       </c>
-      <c r="B219" t="s">
-        <v>375</v>
-      </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B220" t="s">
         <v>376</v>
       </c>
-      <c r="B220" t="s">
-        <v>377</v>
-      </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B221" t="s">
         <v>378</v>
       </c>
-      <c r="B221" t="s">
-        <v>379</v>
-      </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B222" t="s">
         <v>380</v>
       </c>
-      <c r="B222" t="s">
-        <v>381</v>
-      </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="C223" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D223" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D224" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" t="s">
         <v>386</v>
       </c>
-      <c r="B225" t="s">
-        <v>387</v>
-      </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="C226" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D226" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B227" t="s">
         <v>390</v>
       </c>
-      <c r="B227" t="s">
-        <v>391</v>
-      </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B228" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B229" t="s">
         <v>395</v>
       </c>
-      <c r="B229" t="s">
-        <v>396</v>
-      </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B230" t="s">
         <v>249</v>
       </c>
-      <c r="B230" t="s">
-        <v>250</v>
-      </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B231" t="s">
         <v>397</v>
       </c>
-      <c r="B231" t="s">
-        <v>398</v>
-      </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B232" t="s">
         <v>399</v>
       </c>
-      <c r="B232" t="s">
-        <v>400</v>
-      </c>
       <c r="C232" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D232" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B233" t="s">
         <v>401</v>
       </c>
-      <c r="B233" t="s">
-        <v>402</v>
-      </c>
       <c r="C233" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D233" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B234" t="s">
         <v>403</v>
       </c>
-      <c r="B234" t="s">
-        <v>404</v>
-      </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B235" t="s">
         <v>251</v>
       </c>
-      <c r="B235" t="s">
-        <v>252</v>
-      </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B236" t="s">
         <v>167</v>
       </c>
-      <c r="B236" t="s">
-        <v>168</v>
-      </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B237" t="s">
         <v>405</v>
       </c>
-      <c r="B237" t="s">
-        <v>406</v>
-      </c>
       <c r="C237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B238" t="s">
         <v>407</v>
       </c>
-      <c r="B238" t="s">
-        <v>408</v>
-      </c>
       <c r="C238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B239" t="s">
         <v>409</v>
       </c>
-      <c r="B239" t="s">
-        <v>410</v>
-      </c>
       <c r="C239" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D239" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B240" t="s">
         <v>411</v>
       </c>
-      <c r="B240" t="s">
-        <v>412</v>
-      </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B241" t="s">
         <v>413</v>
       </c>
-      <c r="B241" t="s">
-        <v>414</v>
-      </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D242" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C243" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B244" t="s">
         <v>184</v>
       </c>
-      <c r="B244" t="s">
-        <v>185</v>
-      </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B245" t="s">
         <v>415</v>
       </c>
-      <c r="B245" t="s">
-        <v>416</v>
-      </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C246" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D246" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C247" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D247" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B249" t="s">
         <v>196</v>
       </c>
-      <c r="B249" t="s">
-        <v>197</v>
-      </c>
       <c r="C249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B250" t="s">
         <v>420</v>
       </c>
-      <c r="B250" t="s">
-        <v>421</v>
-      </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C251" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D251" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B252" t="s">
         <v>422</v>
       </c>
-      <c r="B252" t="s">
-        <v>423</v>
-      </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B253" t="s">
         <v>424</v>
       </c>
-      <c r="B253" t="s">
-        <v>425</v>
-      </c>
       <c r="C253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B254" t="s">
         <v>426</v>
       </c>
-      <c r="B254" t="s">
-        <v>427</v>
-      </c>
       <c r="C254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B255" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C255" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D255" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B256" t="s">
         <v>430</v>
       </c>
-      <c r="B256" t="s">
-        <v>431</v>
-      </c>
       <c r="C256" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B257" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C257" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B258" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C258" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B259" t="s">
         <v>433</v>
       </c>
-      <c r="B259" t="s">
-        <v>434</v>
-      </c>
       <c r="C259" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B260" t="s">
         <v>448</v>
       </c>
-      <c r="B260" t="s">
-        <v>449</v>
-      </c>
       <c r="C260" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B261" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B262" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C262" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D262" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6390,41 +6404,41 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C263" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B264" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C264" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D264" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B265" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C265" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6432,38 +6446,38 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C266" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D266" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B267" t="s">
         <v>446</v>
       </c>
-      <c r="B267" t="s">
-        <v>447</v>
-      </c>
       <c r="C267" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
+        <v>449</v>
+      </c>
+      <c r="B268" t="s">
         <v>450</v>
       </c>
-      <c r="B268" t="s">
-        <v>451</v>
-      </c>
       <c r="C268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -6471,13 +6485,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269" t="s">
         <v>286</v>
       </c>
-      <c r="B269" t="s">
-        <v>287</v>
-      </c>
       <c r="C269" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -6485,13 +6499,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
+        <v>291</v>
+      </c>
+      <c r="B270" t="s">
         <v>292</v>
       </c>
-      <c r="B270" t="s">
-        <v>293</v>
-      </c>
       <c r="C270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -6499,13 +6513,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B271" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C271" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D271" t="s">
         <v>2</v>
@@ -6513,13 +6527,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
+        <v>452</v>
+      </c>
+      <c r="B272" t="s">
         <v>453</v>
       </c>
-      <c r="B272" t="s">
-        <v>454</v>
-      </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -6527,13 +6541,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>295</v>
+      </c>
+      <c r="B273" t="s">
         <v>296</v>
       </c>
-      <c r="B273" t="s">
-        <v>297</v>
-      </c>
       <c r="C273" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -6541,13 +6555,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>454</v>
+      </c>
+      <c r="B274" t="s">
         <v>455</v>
       </c>
-      <c r="B274" t="s">
-        <v>456</v>
-      </c>
       <c r="C274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D274" t="s">
         <v>2</v>
@@ -6555,13 +6569,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" t="s">
         <v>26</v>
       </c>
-      <c r="B275" t="s">
-        <v>27</v>
-      </c>
       <c r="C275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D275" t="s">
         <v>2</v>
@@ -6569,13 +6583,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B276" t="s">
         <v>457</v>
       </c>
-      <c r="B276" t="s">
-        <v>458</v>
-      </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -6583,13 +6597,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B277" t="s">
         <v>459</v>
       </c>
-      <c r="B277" t="s">
-        <v>460</v>
-      </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D277" t="s">
         <v>2</v>
@@ -6597,13 +6611,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B278" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D278" t="s">
         <v>2</v>
@@ -6611,13 +6625,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B279" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C279" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D279" t="s">
         <v>2</v>
@@ -6625,13 +6639,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D280" t="s">
         <v>2</v>
@@ -6639,13 +6653,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B281" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D281" t="s">
         <v>2</v>
@@ -6653,13 +6667,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
+        <v>306</v>
+      </c>
+      <c r="B282" t="s">
         <v>307</v>
       </c>
-      <c r="B282" t="s">
-        <v>308</v>
-      </c>
       <c r="C282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D282" t="s">
         <v>2</v>
@@ -6667,13 +6681,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D283" t="s">
         <v>2</v>
@@ -6681,13 +6695,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C284" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D284" t="s">
         <v>2</v>
@@ -6695,13 +6709,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B285" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D285" t="s">
         <v>2</v>
@@ -6709,13 +6723,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B286" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C286" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D286" t="s">
         <v>2</v>
@@ -6723,13 +6737,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B287" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D287" t="s">
         <v>2</v>
@@ -6737,13 +6751,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B288" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D288" t="s">
         <v>2</v>
@@ -6751,13 +6765,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B289" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C289" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D289" t="s">
         <v>2</v>
@@ -6765,13 +6779,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>472</v>
+      </c>
+      <c r="B290" t="s">
         <v>473</v>
       </c>
-      <c r="B290" t="s">
-        <v>474</v>
-      </c>
       <c r="C290" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D290" t="s">
         <v>2</v>
@@ -6779,13 +6793,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>474</v>
+      </c>
+      <c r="B291" t="s">
         <v>475</v>
       </c>
-      <c r="B291" t="s">
-        <v>476</v>
-      </c>
       <c r="C291" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D291" t="s">
         <v>2</v>
@@ -6793,13 +6807,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>476</v>
+      </c>
+      <c r="B292" t="s">
         <v>477</v>
       </c>
-      <c r="B292" t="s">
-        <v>478</v>
-      </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D292" t="s">
         <v>2</v>
@@ -6807,13 +6821,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>478</v>
+      </c>
+      <c r="B293" t="s">
         <v>479</v>
       </c>
-      <c r="B293" t="s">
-        <v>480</v>
-      </c>
       <c r="C293" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D293" t="s">
         <v>2</v>
@@ -6821,13 +6835,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>480</v>
+      </c>
+      <c r="B294" t="s">
         <v>481</v>
       </c>
-      <c r="B294" t="s">
-        <v>482</v>
-      </c>
       <c r="C294" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D294" t="s">
         <v>2</v>
@@ -6835,13 +6849,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B295" t="s">
         <v>483</v>
       </c>
-      <c r="B295" t="s">
-        <v>484</v>
-      </c>
       <c r="C295" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D295" t="s">
         <v>2</v>
@@ -6849,13 +6863,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B296" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C296" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D296" t="s">
         <v>2</v>
@@ -6863,13 +6877,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B297" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D297" t="s">
         <v>2</v>
@@ -6877,13 +6891,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>92</v>
+      </c>
+      <c r="B298" t="s">
         <v>93</v>
       </c>
-      <c r="B298" t="s">
-        <v>94</v>
-      </c>
       <c r="C298" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D298" t="s">
         <v>2</v>
@@ -6891,13 +6905,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B299" t="s">
         <v>332</v>
       </c>
-      <c r="B299" t="s">
-        <v>333</v>
-      </c>
       <c r="C299" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -6905,13 +6919,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B300" t="s">
         <v>97</v>
       </c>
-      <c r="B300" t="s">
-        <v>98</v>
-      </c>
       <c r="C300" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -6919,13 +6933,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>486</v>
+      </c>
+      <c r="B301" t="s">
         <v>487</v>
       </c>
-      <c r="B301" t="s">
-        <v>488</v>
-      </c>
       <c r="C301" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -6933,13 +6947,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C302" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -6947,13 +6961,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="C303" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -6961,13 +6975,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="C304" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -6975,13 +6989,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>492</v>
+      </c>
+      <c r="B305" t="s">
         <v>493</v>
       </c>
-      <c r="B305" t="s">
-        <v>494</v>
-      </c>
       <c r="C305" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -6989,13 +7003,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="C306" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -7003,13 +7017,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B307" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C307" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D307" t="s">
         <v>2</v>
@@ -7017,13 +7031,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>497</v>
+      </c>
+      <c r="B308" t="s">
         <v>498</v>
       </c>
-      <c r="B308" t="s">
-        <v>499</v>
-      </c>
       <c r="C308" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -7031,13 +7045,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>499</v>
+      </c>
+      <c r="B309" t="s">
         <v>500</v>
       </c>
-      <c r="B309" t="s">
-        <v>501</v>
-      </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D309" t="s">
         <v>2</v>
@@ -7045,13 +7059,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B310" t="s">
         <v>502</v>
       </c>
-      <c r="B310" t="s">
-        <v>503</v>
-      </c>
       <c r="C310" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D310" t="s">
         <v>2</v>
@@ -7059,13 +7073,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
+        <v>503</v>
+      </c>
+      <c r="B311" t="s">
         <v>504</v>
       </c>
-      <c r="B311" t="s">
-        <v>505</v>
-      </c>
       <c r="C311" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D311" t="s">
         <v>2</v>
@@ -7073,13 +7087,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B312" t="s">
         <v>129</v>
       </c>
-      <c r="B312" t="s">
-        <v>130</v>
-      </c>
       <c r="C312" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D312" t="s">
         <v>2</v>
@@ -7087,13 +7101,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
+        <v>235</v>
+      </c>
+      <c r="B313" t="s">
         <v>236</v>
       </c>
-      <c r="B313" t="s">
-        <v>237</v>
-      </c>
       <c r="C313" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D313" t="s">
         <v>2</v>
@@ -7101,13 +7115,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
+        <v>505</v>
+      </c>
+      <c r="B314" t="s">
         <v>506</v>
       </c>
-      <c r="B314" t="s">
-        <v>507</v>
-      </c>
       <c r="C314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
         <v>2</v>
@@ -7115,13 +7129,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B315" t="s">
         <v>508</v>
       </c>
-      <c r="B315" t="s">
-        <v>509</v>
-      </c>
       <c r="C315" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -7129,13 +7143,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>377</v>
+      </c>
+      <c r="B316" t="s">
         <v>378</v>
       </c>
-      <c r="B316" t="s">
-        <v>379</v>
-      </c>
       <c r="C316" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D316" t="s">
         <v>2</v>
@@ -7143,13 +7157,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B317" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C317" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D317" t="s">
         <v>2</v>
@@ -7157,13 +7171,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B318" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D318" t="s">
         <v>2</v>
@@ -7171,13 +7185,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B319" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D319" t="s">
         <v>2</v>
@@ -7185,13 +7199,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B320" t="s">
         <v>146</v>
       </c>
-      <c r="B320" t="s">
-        <v>147</v>
-      </c>
       <c r="C320" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
@@ -7199,13 +7213,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B321" t="s">
         <v>148</v>
       </c>
-      <c r="B321" t="s">
-        <v>149</v>
-      </c>
       <c r="C321" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D321" t="s">
         <v>2</v>
@@ -7213,13 +7227,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B322" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D322" t="s">
         <v>2</v>
@@ -7227,13 +7241,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="C323" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D323" t="s">
         <v>2</v>
@@ -7241,13 +7255,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>513</v>
+      </c>
+      <c r="B324" t="s">
         <v>514</v>
       </c>
-      <c r="B324" t="s">
-        <v>515</v>
-      </c>
       <c r="C324" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D324" t="s">
         <v>2</v>
@@ -7255,13 +7269,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>515</v>
+      </c>
+      <c r="B325" t="s">
         <v>516</v>
       </c>
-      <c r="B325" t="s">
-        <v>517</v>
-      </c>
       <c r="C325" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D325" t="s">
         <v>2</v>
@@ -7269,13 +7283,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
+        <v>517</v>
+      </c>
+      <c r="B326" t="s">
         <v>518</v>
       </c>
-      <c r="B326" t="s">
-        <v>519</v>
-      </c>
       <c r="C326" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D326" t="s">
         <v>2</v>
@@ -7283,13 +7297,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B327" t="s">
         <v>520</v>
       </c>
-      <c r="B327" t="s">
-        <v>521</v>
-      </c>
       <c r="C327" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D327" t="s">
         <v>2</v>
@@ -7297,13 +7311,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>402</v>
+      </c>
+      <c r="B328" t="s">
         <v>403</v>
       </c>
-      <c r="B328" t="s">
-        <v>404</v>
-      </c>
       <c r="C328" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D328" t="s">
         <v>2</v>
@@ -7311,13 +7325,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B329" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C329" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D329" t="s">
         <v>2</v>
@@ -7325,13 +7339,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B330" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C330" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D330" t="s">
         <v>2</v>
@@ -7339,13 +7353,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B331" t="s">
         <v>170</v>
       </c>
-      <c r="B331" t="s">
-        <v>171</v>
-      </c>
       <c r="C331" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -7353,13 +7367,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>523</v>
+      </c>
+      <c r="B332" t="s">
         <v>524</v>
       </c>
-      <c r="B332" t="s">
-        <v>525</v>
-      </c>
       <c r="C332" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -7367,13 +7381,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>525</v>
+      </c>
+      <c r="B333" t="s">
         <v>526</v>
       </c>
-      <c r="B333" t="s">
-        <v>527</v>
-      </c>
       <c r="C333" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -7381,13 +7395,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>527</v>
+      </c>
+      <c r="B334" t="s">
         <v>528</v>
       </c>
-      <c r="B334" t="s">
-        <v>529</v>
-      </c>
       <c r="C334" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -7395,13 +7409,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -7409,13 +7423,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>530</v>
+      </c>
+      <c r="B336" t="s">
         <v>531</v>
       </c>
-      <c r="B336" t="s">
-        <v>532</v>
-      </c>
       <c r="C336" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -7423,13 +7437,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B337" t="s">
         <v>184</v>
       </c>
-      <c r="B337" t="s">
-        <v>185</v>
-      </c>
       <c r="C337" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -7437,13 +7451,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="C338" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -7451,13 +7465,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B339" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C339" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D339" t="s">
         <v>2</v>
@@ -7465,13 +7479,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
+        <v>535</v>
+      </c>
+      <c r="B340" t="s">
         <v>536</v>
       </c>
-      <c r="B340" t="s">
-        <v>537</v>
-      </c>
       <c r="C340" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -7479,13 +7493,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>537</v>
+      </c>
+      <c r="B341" t="s">
         <v>538</v>
       </c>
-      <c r="B341" t="s">
-        <v>539</v>
-      </c>
       <c r="C341" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D341" t="s">
         <v>2</v>
@@ -7493,13 +7507,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B342" t="s">
         <v>196</v>
       </c>
-      <c r="B342" t="s">
-        <v>197</v>
-      </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D342" t="s">
         <v>2</v>
@@ -7507,13 +7521,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
+        <v>539</v>
+      </c>
+      <c r="B343" t="s">
         <v>540</v>
       </c>
-      <c r="B343" t="s">
-        <v>541</v>
-      </c>
       <c r="C343" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D343" t="s">
         <v>2</v>
@@ -7521,13 +7535,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
+        <v>541</v>
+      </c>
+      <c r="B344" t="s">
         <v>542</v>
       </c>
-      <c r="B344" t="s">
-        <v>543</v>
-      </c>
       <c r="C344" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D344" t="s">
         <v>2</v>
@@ -7535,13 +7549,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B345" t="s">
         <v>544</v>
       </c>
-      <c r="B345" t="s">
-        <v>545</v>
-      </c>
       <c r="C345" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D345" t="s">
         <v>2</v>
@@ -7549,13 +7563,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B346" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C346" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D346" t="s">
         <v>2</v>
@@ -7563,13 +7577,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B347" t="s">
         <v>548</v>
       </c>
-      <c r="B347" t="s">
-        <v>549</v>
-      </c>
       <c r="C347" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D347" t="s">
         <v>2</v>
@@ -7577,13 +7591,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B348" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C348" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D348" t="s">
         <v>2</v>
@@ -7591,13 +7605,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B349" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C349" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D349" t="s">
         <v>2</v>
@@ -7605,13 +7619,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B350" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C350" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D350" t="s">
         <v>2</v>
@@ -7619,13 +7633,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>553</v>
+      </c>
+      <c r="B351" t="s">
         <v>554</v>
       </c>
-      <c r="B351" t="s">
-        <v>555</v>
-      </c>
       <c r="C351" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D351" t="s">
         <v>2</v>
@@ -7633,13 +7647,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B352" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C352" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D352" t="s">
         <v>2</v>
@@ -7647,13 +7661,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>556</v>
+      </c>
+      <c r="B353" t="s">
         <v>557</v>
       </c>
-      <c r="B353" t="s">
-        <v>558</v>
-      </c>
       <c r="C353" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D353" t="s">
         <v>2</v>
@@ -7661,13 +7675,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>558</v>
+      </c>
+      <c r="B354" t="s">
         <v>559</v>
       </c>
-      <c r="B354" t="s">
-        <v>560</v>
-      </c>
       <c r="C354" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D354" t="s">
         <v>2</v>
@@ -7675,13 +7689,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
+        <v>560</v>
+      </c>
+      <c r="B355" t="s">
         <v>561</v>
       </c>
-      <c r="B355" t="s">
-        <v>562</v>
-      </c>
       <c r="C355" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D355" t="s">
         <v>2</v>
@@ -7689,13 +7703,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>562</v>
+      </c>
+      <c r="B356" t="s">
         <v>563</v>
       </c>
-      <c r="B356" t="s">
-        <v>564</v>
-      </c>
       <c r="C356" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D356" t="s">
         <v>2</v>
@@ -7703,13 +7717,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
+        <v>564</v>
+      </c>
+      <c r="B357" t="s">
         <v>565</v>
       </c>
-      <c r="B357" t="s">
-        <v>566</v>
-      </c>
       <c r="C357" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D357" t="s">
         <v>2</v>
@@ -7717,13 +7731,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>566</v>
+      </c>
+      <c r="B358" t="s">
         <v>567</v>
       </c>
-      <c r="B358" t="s">
-        <v>568</v>
-      </c>
       <c r="C358" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D358" t="s">
         <v>2</v>
@@ -7731,13 +7745,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
+        <v>571</v>
+      </c>
+      <c r="B359" t="s">
         <v>572</v>
       </c>
-      <c r="B359" t="s">
-        <v>573</v>
-      </c>
       <c r="C359" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D359" t="s">
         <v>2</v>
@@ -7745,13 +7759,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
+        <v>573</v>
+      </c>
+      <c r="B360" t="s">
         <v>574</v>
       </c>
-      <c r="B360" t="s">
-        <v>575</v>
-      </c>
       <c r="C360" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D360" t="s">
         <v>2</v>
@@ -7759,13 +7773,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B361" t="s">
         <v>576</v>
       </c>
-      <c r="B361" t="s">
-        <v>577</v>
-      </c>
       <c r="C361" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D361" t="s">
         <v>2</v>
@@ -7773,13 +7787,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B362" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C362" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D362" t="s">
         <v>2</v>
@@ -7787,13 +7801,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
+        <v>578</v>
+      </c>
+      <c r="B363" t="s">
         <v>579</v>
       </c>
-      <c r="B363" t="s">
-        <v>580</v>
-      </c>
       <c r="C363" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -7801,13 +7815,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B364" t="s">
         <v>581</v>
       </c>
-      <c r="B364" t="s">
-        <v>582</v>
-      </c>
       <c r="C364" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -7815,13 +7829,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B365" t="s">
         <v>583</v>
       </c>
-      <c r="B365" t="s">
-        <v>584</v>
-      </c>
       <c r="C365" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -7829,13 +7843,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B366" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C366" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -7843,13 +7857,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
+        <v>585</v>
+      </c>
+      <c r="B367" t="s">
         <v>586</v>
       </c>
-      <c r="B367" t="s">
-        <v>587</v>
-      </c>
       <c r="C367" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -7857,13 +7871,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B368" t="s">
         <v>588</v>
       </c>
-      <c r="B368" t="s">
-        <v>589</v>
-      </c>
       <c r="C368" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -7871,13 +7885,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B369" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C369" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -7885,13 +7899,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B370" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C370" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -7899,13 +7913,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
+        <v>591</v>
+      </c>
+      <c r="B371" t="s">
         <v>592</v>
       </c>
-      <c r="B371" t="s">
-        <v>593</v>
-      </c>
       <c r="C371" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D371" t="s">
         <v>2</v>
@@ -7913,13 +7927,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
+        <v>593</v>
+      </c>
+      <c r="B372" t="s">
         <v>594</v>
       </c>
-      <c r="B372" t="s">
-        <v>595</v>
-      </c>
       <c r="C372" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -7927,13 +7941,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
+        <v>595</v>
+      </c>
+      <c r="B373" t="s">
         <v>596</v>
       </c>
-      <c r="B373" t="s">
-        <v>597</v>
-      </c>
       <c r="C373" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D373" t="s">
         <v>2</v>
@@ -7941,13 +7955,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
+        <v>597</v>
+      </c>
+      <c r="B374" t="s">
         <v>598</v>
       </c>
-      <c r="B374" t="s">
-        <v>599</v>
-      </c>
       <c r="C374" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D374" t="s">
         <v>2</v>
@@ -7955,13 +7969,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B375" t="s">
         <v>600</v>
       </c>
-      <c r="B375" t="s">
-        <v>601</v>
-      </c>
       <c r="C375" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D375" t="s">
         <v>2</v>
@@ -7969,13 +7983,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
+        <v>601</v>
+      </c>
+      <c r="B376" t="s">
         <v>602</v>
       </c>
-      <c r="B376" t="s">
-        <v>603</v>
-      </c>
       <c r="C376" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D376" t="s">
         <v>2</v>
@@ -7983,13 +7997,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B377" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C377" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D377" t="s">
         <v>2</v>
@@ -7997,13 +8011,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
+        <v>604</v>
+      </c>
+      <c r="B378" t="s">
         <v>605</v>
       </c>
-      <c r="B378" t="s">
-        <v>606</v>
-      </c>
       <c r="C378" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D378" t="s">
         <v>2</v>
@@ -8011,13 +8025,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
+        <v>606</v>
+      </c>
+      <c r="B379" t="s">
         <v>607</v>
       </c>
-      <c r="B379" t="s">
-        <v>608</v>
-      </c>
       <c r="C379" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D379" t="s">
         <v>2</v>
@@ -8025,13 +8039,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B380" t="s">
         <v>609</v>
       </c>
-      <c r="B380" t="s">
-        <v>610</v>
-      </c>
       <c r="C380" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D380" t="s">
         <v>2</v>
@@ -8039,13 +8053,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B381" t="s">
         <v>426</v>
       </c>
-      <c r="B381" t="s">
-        <v>427</v>
-      </c>
       <c r="C381" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D381" t="s">
         <v>2</v>
@@ -8053,13 +8067,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
+        <v>648</v>
+      </c>
+      <c r="B382" t="s">
         <v>649</v>
       </c>
-      <c r="B382" t="s">
-        <v>650</v>
-      </c>
       <c r="C382" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D382" t="s">
         <v>3</v>
@@ -8067,13 +8081,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>650</v>
+      </c>
+      <c r="B383" t="s">
         <v>651</v>
       </c>
-      <c r="B383" t="s">
-        <v>652</v>
-      </c>
       <c r="C383" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D383" t="s">
         <v>3</v>
@@ -8081,13 +8095,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
+        <v>291</v>
+      </c>
+      <c r="B384" t="s">
         <v>292</v>
       </c>
-      <c r="B384" t="s">
-        <v>293</v>
-      </c>
       <c r="C384" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D384" t="s">
         <v>3</v>
@@ -8095,13 +8109,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B385" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C385" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D385" t="s">
         <v>3</v>
@@ -8109,13 +8123,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>653</v>
+      </c>
+      <c r="B386" t="s">
         <v>654</v>
       </c>
-      <c r="B386" t="s">
-        <v>655</v>
-      </c>
       <c r="C386" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -8123,13 +8137,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B387" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C387" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D387" t="s">
         <v>3</v>
@@ -8137,13 +8151,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>302</v>
+      </c>
+      <c r="B388" t="s">
         <v>303</v>
       </c>
-      <c r="B388" t="s">
-        <v>304</v>
-      </c>
       <c r="C388" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D388" t="s">
         <v>3</v>
@@ -8151,13 +8165,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B389" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C389" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -8165,13 +8179,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
+        <v>656</v>
+      </c>
+      <c r="B390" t="s">
         <v>657</v>
       </c>
-      <c r="B390" t="s">
-        <v>658</v>
-      </c>
       <c r="C390" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D390" t="s">
         <v>3</v>
@@ -8179,13 +8193,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B391" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C391" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -8193,13 +8207,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
+        <v>659</v>
+      </c>
+      <c r="B392" t="s">
         <v>660</v>
       </c>
-      <c r="B392" t="s">
-        <v>661</v>
-      </c>
       <c r="C392" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D392" t="s">
         <v>3</v>
@@ -8207,13 +8221,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
+        <v>661</v>
+      </c>
+      <c r="B393" t="s">
         <v>662</v>
       </c>
-      <c r="B393" t="s">
-        <v>663</v>
-      </c>
       <c r="C393" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D393" t="s">
         <v>3</v>
@@ -8221,13 +8235,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>663</v>
+      </c>
+      <c r="B394" t="s">
         <v>664</v>
       </c>
-      <c r="B394" t="s">
-        <v>665</v>
-      </c>
       <c r="C394" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -8235,13 +8249,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>86</v>
+      </c>
+      <c r="B395" t="s">
         <v>87</v>
       </c>
-      <c r="B395" t="s">
-        <v>88</v>
-      </c>
       <c r="C395" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D395" t="s">
         <v>3</v>
@@ -8249,13 +8263,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
+        <v>331</v>
+      </c>
+      <c r="B396" t="s">
         <v>332</v>
       </c>
-      <c r="B396" t="s">
-        <v>333</v>
-      </c>
       <c r="C396" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D396" t="s">
         <v>3</v>
@@ -8263,13 +8277,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
+        <v>665</v>
+      </c>
+      <c r="B397" t="s">
         <v>666</v>
       </c>
-      <c r="B397" t="s">
-        <v>667</v>
-      </c>
       <c r="C397" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D397" t="s">
         <v>3</v>
@@ -8277,13 +8291,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
+        <v>667</v>
+      </c>
+      <c r="B398" t="s">
         <v>668</v>
       </c>
-      <c r="B398" t="s">
-        <v>669</v>
-      </c>
       <c r="C398" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D398" t="s">
         <v>3</v>
@@ -8291,13 +8305,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B399" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C399" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D399" t="s">
         <v>3</v>
@@ -8305,13 +8319,13 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B400" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C400" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D400" t="s">
         <v>3</v>
@@ -8319,13 +8333,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
+        <v>110</v>
+      </c>
+      <c r="B401" t="s">
         <v>111</v>
       </c>
-      <c r="B401" t="s">
-        <v>112</v>
-      </c>
       <c r="C401" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D401" t="s">
         <v>3</v>
@@ -8333,13 +8347,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>671</v>
+      </c>
+      <c r="B402" t="s">
         <v>672</v>
       </c>
-      <c r="B402" t="s">
-        <v>673</v>
-      </c>
       <c r="C402" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D402" t="s">
         <v>3</v>
@@ -8347,13 +8361,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
+        <v>673</v>
+      </c>
+      <c r="B403" t="s">
         <v>674</v>
       </c>
-      <c r="B403" t="s">
-        <v>675</v>
-      </c>
       <c r="C403" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D403" t="s">
         <v>3</v>
@@ -8361,13 +8375,13 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
+        <v>675</v>
+      </c>
+      <c r="B404" t="s">
         <v>676</v>
       </c>
-      <c r="B404" t="s">
-        <v>677</v>
-      </c>
       <c r="C404" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D404" t="s">
         <v>3</v>
@@ -8375,13 +8389,13 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
+        <v>677</v>
+      </c>
+      <c r="B405" t="s">
         <v>678</v>
       </c>
-      <c r="B405" t="s">
-        <v>679</v>
-      </c>
       <c r="C405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D405" t="s">
         <v>3</v>
@@ -8389,13 +8403,13 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
+        <v>363</v>
+      </c>
+      <c r="B406" t="s">
         <v>364</v>
       </c>
-      <c r="B406" t="s">
-        <v>365</v>
-      </c>
       <c r="C406" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D406" t="s">
         <v>3</v>
@@ -8403,13 +8417,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B407" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C407" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -8417,13 +8431,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>680</v>
+      </c>
+      <c r="B408" t="s">
         <v>681</v>
       </c>
-      <c r="B408" t="s">
-        <v>682</v>
-      </c>
       <c r="C408" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D408" t="s">
         <v>3</v>
@@ -8431,13 +8445,13 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
+        <v>682</v>
+      </c>
+      <c r="B409" t="s">
         <v>683</v>
       </c>
-      <c r="B409" t="s">
-        <v>684</v>
-      </c>
       <c r="C409" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D409" t="s">
         <v>3</v>
@@ -8445,13 +8459,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
+        <v>684</v>
+      </c>
+      <c r="B410" t="s">
         <v>685</v>
       </c>
-      <c r="B410" t="s">
-        <v>686</v>
-      </c>
       <c r="C410" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -8459,13 +8473,13 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>686</v>
+      </c>
+      <c r="B411" t="s">
         <v>687</v>
       </c>
-      <c r="B411" t="s">
-        <v>688</v>
-      </c>
       <c r="C411" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D411" t="s">
         <v>3</v>
@@ -8473,13 +8487,13 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
+        <v>688</v>
+      </c>
+      <c r="B412" t="s">
         <v>689</v>
       </c>
-      <c r="B412" t="s">
-        <v>690</v>
-      </c>
       <c r="C412" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D412" t="s">
         <v>3</v>
@@ -8487,13 +8501,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
+        <v>690</v>
+      </c>
+      <c r="B413" t="s">
         <v>691</v>
       </c>
-      <c r="B413" t="s">
-        <v>692</v>
-      </c>
       <c r="C413" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D413" t="s">
         <v>3</v>
@@ -8501,13 +8515,13 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
+        <v>692</v>
+      </c>
+      <c r="B414" t="s">
         <v>693</v>
       </c>
-      <c r="B414" t="s">
-        <v>694</v>
-      </c>
       <c r="C414" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D414" t="s">
         <v>3</v>
@@ -8515,13 +8529,13 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
+        <v>189</v>
+      </c>
+      <c r="B415" t="s">
         <v>190</v>
       </c>
-      <c r="B415" t="s">
-        <v>191</v>
-      </c>
       <c r="C415" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D415" t="s">
         <v>3</v>
@@ -8529,13 +8543,13 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
+        <v>694</v>
+      </c>
+      <c r="B416" t="s">
         <v>695</v>
       </c>
-      <c r="B416" t="s">
-        <v>696</v>
-      </c>
       <c r="C416" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D416" t="s">
         <v>3</v>
@@ -8543,13 +8557,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>696</v>
+      </c>
+      <c r="B417" t="s">
         <v>697</v>
       </c>
-      <c r="B417" t="s">
-        <v>698</v>
-      </c>
       <c r="C417" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D417" t="s">
         <v>3</v>
@@ -8557,13 +8571,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B418" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C418" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -8571,13 +8585,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>612</v>
+      </c>
+      <c r="B419" t="s">
         <v>613</v>
       </c>
-      <c r="B419" t="s">
-        <v>614</v>
-      </c>
       <c r="C419" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -8585,13 +8599,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
+        <v>614</v>
+      </c>
+      <c r="B420" t="s">
         <v>615</v>
       </c>
-      <c r="B420" t="s">
-        <v>616</v>
-      </c>
       <c r="C420" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -8599,13 +8613,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
+        <v>616</v>
+      </c>
+      <c r="B421" t="s">
         <v>617</v>
       </c>
-      <c r="B421" t="s">
-        <v>618</v>
-      </c>
       <c r="C421" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -8613,13 +8627,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>618</v>
+      </c>
+      <c r="B422" t="s">
         <v>619</v>
       </c>
-      <c r="B422" t="s">
-        <v>620</v>
-      </c>
       <c r="C422" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -8627,13 +8641,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>620</v>
+      </c>
+      <c r="B423" t="s">
         <v>621</v>
       </c>
-      <c r="B423" t="s">
-        <v>622</v>
-      </c>
       <c r="C423" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -8641,13 +8655,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>622</v>
+      </c>
+      <c r="B424" t="s">
         <v>623</v>
       </c>
-      <c r="B424" t="s">
-        <v>624</v>
-      </c>
       <c r="C424" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -8655,13 +8669,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>624</v>
+      </c>
+      <c r="B425" t="s">
         <v>625</v>
       </c>
-      <c r="B425" t="s">
-        <v>626</v>
-      </c>
       <c r="C425" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -8669,13 +8683,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
+        <v>626</v>
+      </c>
+      <c r="B426" t="s">
         <v>627</v>
       </c>
-      <c r="B426" t="s">
-        <v>628</v>
-      </c>
       <c r="C426" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -8683,13 +8697,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B427" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C427" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -8697,13 +8711,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B428" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C428" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -8711,13 +8725,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>629</v>
+      </c>
+      <c r="B429" t="s">
         <v>630</v>
       </c>
-      <c r="B429" t="s">
-        <v>631</v>
-      </c>
       <c r="C429" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -8725,13 +8739,13 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B430" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C430" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -8739,13 +8753,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B431" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C431" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -8753,13 +8767,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B432" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C432" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -8767,13 +8781,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B433" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C433" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -8781,13 +8795,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B434" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C434" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -8795,13 +8809,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B435" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C435" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -8809,13 +8823,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B436" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C436" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -8823,13 +8837,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B437" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C437" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -8837,13 +8851,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B438" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C438" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -8851,13 +8865,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B439" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C439" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -8865,13 +8879,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B440" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C440" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -8879,13 +8893,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B441" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C441" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -8893,13 +8907,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B442" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C442" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -8907,13 +8921,13 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
+        <v>641</v>
+      </c>
+      <c r="B443" t="s">
         <v>642</v>
       </c>
-      <c r="B443" t="s">
-        <v>643</v>
-      </c>
       <c r="C443" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -8921,13 +8935,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B444" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C444" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -8935,13 +8949,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B445" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C445" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -8949,13 +8963,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
+        <v>644</v>
+      </c>
+      <c r="B446" t="s">
         <v>645</v>
       </c>
-      <c r="B446" t="s">
-        <v>646</v>
-      </c>
       <c r="C446" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -8963,13 +8977,13 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
+        <v>646</v>
+      </c>
+      <c r="B447" t="s">
         <v>647</v>
       </c>
-      <c r="B447" t="s">
-        <v>648</v>
-      </c>
       <c r="C447" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>

--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1494" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4949FB1-3E6E-4C1D-9CD5-4F8D0DF79E87}"/>
+  <xr:revisionPtr revIDLastSave="1499" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3063E323-178F-4371-A490-A9464BC680F6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1499" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3063E323-178F-4371-A490-A9464BC680F6}"/>
+  <xr:revisionPtr revIDLastSave="1702" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11D1087-B267-47BC-958F-312390040B12}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
@@ -39,6 +39,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CA867E6F-1549-45FA-9B8F-05BBAD859D47}</author>
+    <author>tc={99EF2F98-353B-4D46-A95F-8C2E744CAB35}</author>
+    <author>tc={61A9D8FB-1455-43F4-AFC3-E12767551676}</author>
     <author>tc={EECC16CA-C996-4A1E-8823-01338F560F50}</author>
     <author>tc={FAA363BE-12C3-417C-915B-65F45AE58638}</author>
     <author>tc={79B7D5D7-598C-49BB-930B-2C2F21AF0021}</author>
@@ -54,7 +56,23 @@
     USDA Plants: "may become invasive"</t>
       </text>
     </comment>
-    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{EECC16CA-C996-4A1E-8823-01338F560F50}">
+    <comment ref="A107" authorId="1" shapeId="0" xr:uid="{99EF2F98-353B-4D46-A95F-8C2E744CAB35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    USDA Plants code is now AMMEI2 (was previously AMIN3 but then grouped together with AMINE2)</t>
+      </text>
+    </comment>
+    <comment ref="A142" authorId="2" shapeId="0" xr:uid="{61A9D8FB-1455-43F4-AFC3-E12767551676}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    USDA Plants code now ACSP12</t>
+      </text>
+    </comment>
+    <comment ref="C143" authorId="3" shapeId="0" xr:uid="{EECC16CA-C996-4A1E-8823-01338F560F50}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +80,7 @@
     USDA Plants: "may become invasive"</t>
       </text>
     </comment>
-    <comment ref="A206" authorId="2" shapeId="0" xr:uid="{FAA363BE-12C3-417C-915B-65F45AE58638}">
+    <comment ref="A219" authorId="4" shapeId="0" xr:uid="{FAA363BE-12C3-417C-915B-65F45AE58638}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +88,7 @@
     USDA code is CHAB2</t>
       </text>
     </comment>
-    <comment ref="A207" authorId="3" shapeId="0" xr:uid="{79B7D5D7-598C-49BB-930B-2C2F21AF0021}">
+    <comment ref="A220" authorId="5" shapeId="0" xr:uid="{79B7D5D7-598C-49BB-930B-2C2F21AF0021}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,7 +96,7 @@
     USDA code is CHME5</t>
       </text>
     </comment>
-    <comment ref="A208" authorId="4" shapeId="0" xr:uid="{94C28270-043D-4F55-BE47-C9283CD3AE92}">
+    <comment ref="A221" authorId="6" shapeId="0" xr:uid="{94C28270-043D-4F55-BE47-C9283CD3AE92}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +104,7 @@
     USDA code is CHPO12</t>
       </text>
     </comment>
-    <comment ref="A252" authorId="5" shapeId="0" xr:uid="{7563C7EA-E009-4402-AFFE-132040552110}">
+    <comment ref="A268" authorId="7" shapeId="0" xr:uid="{7563C7EA-E009-4402-AFFE-132040552110}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="743">
   <si>
     <t>Mojave</t>
   </si>
@@ -1406,15 +1424,6 @@
     <t>Unknown brown</t>
   </si>
   <si>
-    <t>UNK heart</t>
-  </si>
-  <si>
-    <t>UNK brown</t>
-  </si>
-  <si>
-    <t>unk grass 2</t>
-  </si>
-  <si>
     <t>Could be BOCU</t>
   </si>
   <si>
@@ -1433,18 +1442,9 @@
     <t>Unk bunchGrass #1</t>
   </si>
   <si>
-    <t>unk grass 1</t>
-  </si>
-  <si>
-    <t>unk forb</t>
-  </si>
-  <si>
     <t>Unknown forb</t>
   </si>
   <si>
-    <t>unk grass</t>
-  </si>
-  <si>
     <t>Unknown grass</t>
   </si>
   <si>
@@ -1832,9 +1832,6 @@
     <t>Unknown forb (Patagonia and SRER are same); upright mustard with tiny blueish flower</t>
   </si>
   <si>
-    <t>Unknown forb (SRER) - Tiny yellow flowers, forked leaves</t>
-  </si>
-  <si>
     <t>UNFO1A</t>
   </si>
   <si>
@@ -2202,6 +2199,153 @@
   </si>
   <si>
     <t>CodeOriginal</t>
+  </si>
+  <si>
+    <t>CRIN8</t>
+  </si>
+  <si>
+    <t>Cryptantha intermedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eragrostis cilianensis </t>
+  </si>
+  <si>
+    <t>LAOC3</t>
+  </si>
+  <si>
+    <t>Lappula occidentalis</t>
+  </si>
+  <si>
+    <t>MAAF</t>
+  </si>
+  <si>
+    <t>Malcolmia africana</t>
+  </si>
+  <si>
+    <t>AMIN3</t>
+  </si>
+  <si>
+    <t>Amsinckia intermedia</t>
+  </si>
+  <si>
+    <t>PEPE26</t>
+  </si>
+  <si>
+    <t>Pectocarya penicillata</t>
+  </si>
+  <si>
+    <t>Stipa speciosa</t>
+  </si>
+  <si>
+    <t>STSP3</t>
+  </si>
+  <si>
+    <t>CHSPP</t>
+  </si>
+  <si>
+    <t>ERDI2</t>
+  </si>
+  <si>
+    <t>Eriastrum diffusum</t>
+  </si>
+  <si>
+    <t>ERIOG</t>
+  </si>
+  <si>
+    <t>Eriogonum sp.</t>
+  </si>
+  <si>
+    <t>LEPISP</t>
+  </si>
+  <si>
+    <t>Lepidium sp.</t>
+  </si>
+  <si>
+    <t>PHYSR</t>
+  </si>
+  <si>
+    <t>Physaria sp.</t>
+  </si>
+  <si>
+    <t>SISYM</t>
+  </si>
+  <si>
+    <t>Sisymbrium sp.</t>
+  </si>
+  <si>
+    <t>Unk brown</t>
+  </si>
+  <si>
+    <t>Unk grass 2</t>
+  </si>
+  <si>
+    <t>ERIASPP</t>
+  </si>
+  <si>
+    <t>Eriastrum spp.</t>
+  </si>
+  <si>
+    <t>ERISPP</t>
+  </si>
+  <si>
+    <t>Erigeron spp.</t>
+  </si>
+  <si>
+    <t>GILSPP2</t>
+  </si>
+  <si>
+    <t>Very similar to GIsp 1 but slightly more serated leaves and flowers are purple/pink instead of blueish/white</t>
+  </si>
+  <si>
+    <t>Lotus greenei</t>
+  </si>
+  <si>
+    <t>LOGR4</t>
+  </si>
+  <si>
+    <t>UNFO-1</t>
+  </si>
+  <si>
+    <t>Unknown forb (Patagonia); Soft and fuzzy/hairy, serated leaves with middle vein underneath on bottom side of the leaf, pickle smell</t>
+  </si>
+  <si>
+    <t>Unknown forb (SRER); Tiny yellow flowers, forked leaves</t>
+  </si>
+  <si>
+    <t>Unknown forb (SRER); Umbilliferae family, thin lacey divided leaves with small white flowers in umbels at the top</t>
+  </si>
+  <si>
+    <t>UNFO-2</t>
+  </si>
+  <si>
+    <t>Unknown forb (SRER); Super hairy almost spikey looking with pinately lobed leaves</t>
+  </si>
+  <si>
+    <t>UNFO-3</t>
+  </si>
+  <si>
+    <t>Unknown forb (SRER); Androsace species (or possibly a cynquifoil), small basal leaves typically with a reddish color, with a reddish long thin stem, with artichoke head-like tops</t>
+  </si>
+  <si>
+    <t>UNFO-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown forb (SRER); Possibly a Linum species (Flax), basal rosette, narrow rounded leaves opposite along and close to an upright stem </t>
+  </si>
+  <si>
+    <t>UNSHR-1</t>
+  </si>
+  <si>
+    <t>Unknown shrub (Patagonia); mesquite or acacia</t>
+  </si>
+  <si>
+    <t>Unknown grass seedling (SRER), but most likely ERLE</t>
+  </si>
+  <si>
+    <t>Trifolium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trifolium sp. </t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2271,9 +2415,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,15 +2437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2319,8 +2460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7490460" y="381000"/>
-          <a:ext cx="4351020" cy="899160"/>
+          <a:off x="7505700" y="381000"/>
+          <a:ext cx="4352925" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,7 +2505,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t> Master.xlsx. I added Native column.</a:t>
+            <a:t> Master.xlsx. I added Native column. Highlighting is retained from Master.xlsx.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2377,7 +2518,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> are same ones from Master.xlsx (CodeOriginal).</a:t>
+            <a:t> are same ones from Master.xlsx (CodeOriginal). I have noted in a comment when the official USDA Plants code is different.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2392,6 +2533,7 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Lia Ossanna" id="{93062448-77F2-4CA2-BF5F-15FAEE687A63}" userId="77a17b917ec44c6e" providerId="Windows Live"/>
   <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" userId="Ossanna, Lia Qin Ryan - (lossanna)" providerId="None"/>
+  <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
 </personList>
 </file>
 
@@ -2695,19 +2837,25 @@
   <threadedComment ref="C3" dT="2022-11-21T20:49:53.28" personId="{93062448-77F2-4CA2-BF5F-15FAEE687A63}" id="{CA867E6F-1549-45FA-9B8F-05BBAD859D47}">
     <text>USDA Plants: "may become invasive"</text>
   </threadedComment>
-  <threadedComment ref="C133" dT="2022-11-21T20:49:53.28" personId="{93062448-77F2-4CA2-BF5F-15FAEE687A63}" id="{EECC16CA-C996-4A1E-8823-01338F560F50}">
+  <threadedComment ref="A107" dT="2023-09-18T17:30:19.14" personId="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" id="{99EF2F98-353B-4D46-A95F-8C2E744CAB35}">
+    <text>USDA Plants code is now AMMEI2 (was previously AMIN3 but then grouped together with AMINE2)</text>
+  </threadedComment>
+  <threadedComment ref="A142" dT="2023-09-18T17:35:40.17" personId="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" id="{61A9D8FB-1455-43F4-AFC3-E12767551676}">
+    <text>USDA Plants code now ACSP12</text>
+  </threadedComment>
+  <threadedComment ref="C143" dT="2022-11-21T20:49:53.28" personId="{93062448-77F2-4CA2-BF5F-15FAEE687A63}" id="{EECC16CA-C996-4A1E-8823-01338F560F50}">
     <text>USDA Plants: "may become invasive"</text>
   </threadedComment>
-  <threadedComment ref="A206" dT="2022-11-21T22:36:15.70" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{FAA363BE-12C3-417C-915B-65F45AE58638}">
+  <threadedComment ref="A219" dT="2022-11-21T22:36:15.70" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{FAA363BE-12C3-417C-915B-65F45AE58638}">
     <text>USDA code is CHAB2</text>
   </threadedComment>
-  <threadedComment ref="A207" dT="2022-11-21T22:36:35.87" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{79B7D5D7-598C-49BB-930B-2C2F21AF0021}">
+  <threadedComment ref="A220" dT="2022-11-21T22:36:35.87" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{79B7D5D7-598C-49BB-930B-2C2F21AF0021}">
     <text>USDA code is CHME5</text>
   </threadedComment>
-  <threadedComment ref="A208" dT="2022-11-21T22:35:26.96" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{94C28270-043D-4F55-BE47-C9283CD3AE92}">
+  <threadedComment ref="A221" dT="2022-11-21T22:35:26.96" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{94C28270-043D-4F55-BE47-C9283CD3AE92}">
     <text>USDA code is CHPO12</text>
   </threadedComment>
-  <threadedComment ref="A252" dT="2022-11-21T22:58:57.50" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{7563C7EA-E009-4402-AFFE-132040552110}">
+  <threadedComment ref="A268" dT="2022-11-21T22:58:57.50" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{7563C7EA-E009-4402-AFFE-132040552110}">
     <text>USDA code is MILI5</text>
   </threadedComment>
 </ThreadedComments>
@@ -2715,17 +2863,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145D513E-78C6-4566-8FB8-6746482B5D0B}">
-  <dimension ref="A1:D447"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A443" sqref="A443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -2733,7 +2881,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -2879,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -2949,7 +3097,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3030,7 +3178,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -3047,7 +3195,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3061,7 +3209,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3075,7 +3223,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -3145,7 +3293,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -3237,10 +3385,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>694</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>695</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -3251,24 +3399,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -3279,55 +3427,55 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>88</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
+      <c r="C43" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -3335,24 +3483,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>94</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -3363,13 +3511,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -3377,13 +3525,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -3391,55 +3539,55 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
+      <c r="C51" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -3447,55 +3595,55 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
+      <c r="C55" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -3503,10 +3651,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3517,69 +3665,69 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>121</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
+      <c r="C61" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -3587,10 +3735,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3600,11 +3748,11 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
+      <c r="A63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -3614,11 +3762,11 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" t="s">
-        <v>135</v>
+      <c r="A64" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -3629,10 +3777,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -3643,10 +3791,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -3657,69 +3805,69 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>141</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" t="s">
         <v>16</v>
       </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
       <c r="D70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
+      <c r="A71" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -3727,83 +3875,83 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
+      <c r="C77" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -3811,10 +3959,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>385</v>
+      </c>
+      <c r="B78" t="s">
+        <v>386</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -3825,24 +3973,24 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>167</v>
+      <c r="A80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -3853,10 +4001,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -3866,11 +4014,11 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>170</v>
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -3881,10 +4029,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -3895,125 +4043,125 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>173</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>174</v>
       </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>181</v>
-      </c>
-      <c r="B88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
+      <c r="C92" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -4021,13 +4169,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -4035,10 +4183,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -4048,56 +4196,56 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
+      <c r="A95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="A96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" t="s">
         <v>16</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -4105,13 +4253,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -4119,10 +4267,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -4133,83 +4281,83 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>209</v>
+        <v>197</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>210</v>
+      <c r="A102" t="s">
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
+      <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D103" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" t="s">
-        <v>32</v>
+        <v>203</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>698</v>
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>698</v>
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
       </c>
       <c r="D106" t="s">
         <v>0</v>
@@ -4217,10 +4365,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>214</v>
+        <v>701</v>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>702</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -4231,10 +4379,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -4245,10 +4393,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -4259,10 +4407,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -4273,27 +4421,27 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B112" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" t="s">
-        <v>7</v>
+      <c r="A112" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D112" t="s">
         <v>0</v>
@@ -4301,10 +4449,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -4315,10 +4463,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -4329,13 +4477,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>230</v>
+        <v>694</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>695</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
@@ -4343,10 +4491,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -4356,28 +4504,28 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>698</v>
+      <c r="A117" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
       </c>
       <c r="D117" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" t="s">
-        <v>234</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
+      <c r="A118" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D118" t="s">
         <v>0</v>
@@ -4385,10 +4533,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -4399,10 +4547,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -4413,27 +4561,27 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>698</v>
+      <c r="A122" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
       </c>
       <c r="D122" t="s">
         <v>0</v>
@@ -4441,10 +4589,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -4454,14 +4602,14 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>227</v>
-      </c>
-      <c r="C124" t="s">
-        <v>7</v>
+      <c r="A124" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D124" t="s">
         <v>0</v>
@@ -4469,10 +4617,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -4483,10 +4631,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -4497,10 +4645,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -4511,13 +4659,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D128" t="s">
         <v>0</v>
@@ -4525,27 +4673,27 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D129" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>698</v>
+      <c r="A130" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" t="s">
+        <v>242</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
       </c>
       <c r="D130" t="s">
         <v>0</v>
@@ -4553,10 +4701,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -4567,195 +4715,195 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>12</v>
+      <c r="A133" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>698</v>
+      <c r="A134" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>259</v>
+      <c r="A135" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>704</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>261</v>
+      <c r="A136" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>66</v>
+      <c r="A137" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>82</v>
-      </c>
-      <c r="B138" t="s">
-        <v>263</v>
-      </c>
-      <c r="C138" t="s">
-        <v>7</v>
+      <c r="A138" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D138" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>84</v>
+      <c r="A139" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B139" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D139" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>88</v>
+      <c r="A140" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B140" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>265</v>
+      <c r="A141" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B141" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
       </c>
       <c r="D141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>96</v>
+      <c r="A142" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
+        <v>705</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>698</v>
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>267</v>
-      </c>
-      <c r="B144" t="s">
-        <v>268</v>
-      </c>
-      <c r="C144" t="s">
-        <v>7</v>
+      <c r="A144" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>698</v>
+      <c r="A145" t="s">
+        <v>259</v>
+      </c>
+      <c r="B145" t="s">
+        <v>260</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -4763,10 +4911,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -4776,14 +4924,14 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>119</v>
-      </c>
-      <c r="B147" t="s">
-        <v>118</v>
-      </c>
-      <c r="C147" t="s">
-        <v>7</v>
+      <c r="A147" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -4791,10 +4939,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -4805,10 +4953,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B149" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -4819,10 +4967,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -4833,13 +4981,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -4847,10 +4995,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -4860,14 +5008,14 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" t="s">
-        <v>7</v>
+      <c r="A153" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -4875,10 +5023,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -4888,14 +5036,14 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>271</v>
-      </c>
-      <c r="B155" t="s">
-        <v>272</v>
-      </c>
-      <c r="C155" t="s">
-        <v>7</v>
+      <c r="A155" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -4903,10 +5051,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="B156" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -4916,42 +5064,42 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>698</v>
+      <c r="A157" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>698</v>
+      <c r="A158" t="s">
+        <v>120</v>
+      </c>
+      <c r="B158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>698</v>
+      <c r="A159" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -4959,10 +5107,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -4973,10 +5121,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B161" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -4987,10 +5135,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -5001,164 +5149,164 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>281</v>
+      <c r="A164" t="s">
+        <v>157</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>283</v>
+      <c r="A165" t="s">
+        <v>271</v>
       </c>
       <c r="B165" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
-        <v>285</v>
+      <c r="A166" t="s">
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B167" t="s">
-        <v>288</v>
-      </c>
-      <c r="C167" t="s">
-        <v>7</v>
+      <c r="A167" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D167" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B168" t="s">
-        <v>290</v>
-      </c>
-      <c r="C168" t="s">
-        <v>7</v>
+      <c r="A168" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D168" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B169" t="s">
-        <v>292</v>
-      </c>
-      <c r="C169" t="s">
-        <v>7</v>
+      <c r="A169" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D169" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
-        <v>294</v>
+      <c r="A170" t="s">
+        <v>277</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
-        <v>295</v>
+      <c r="A171" t="s">
+        <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>297</v>
+      <c r="A172" t="s">
+        <v>279</v>
       </c>
       <c r="B172" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>299</v>
+      <c r="A173" t="s">
+        <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -5169,10 +5317,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -5183,10 +5331,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -5197,10 +5345,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B177" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -5211,10 +5359,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B178" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -5225,10 +5373,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -5239,10 +5387,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B180" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -5253,10 +5401,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B181" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -5266,14 +5414,14 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>698</v>
+      <c r="A182" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B182" t="s">
+        <v>298</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
       </c>
       <c r="D182" t="s">
         <v>258</v>
@@ -5281,10 +5429,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B183" t="s">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -5295,10 +5443,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B184" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -5308,14 +5456,14 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>698</v>
+      <c r="A185" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
       </c>
       <c r="D185" t="s">
         <v>258</v>
@@ -5323,10 +5471,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -5337,10 +5485,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B187" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
@@ -5351,10 +5499,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B188" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -5365,10 +5513,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B189" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -5379,10 +5527,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B190" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -5393,10 +5541,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B191" t="s">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -5407,13 +5555,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D192" t="s">
         <v>258</v>
@@ -5421,10 +5569,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="B193" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -5435,10 +5583,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="B194" t="s">
-        <v>93</v>
+        <v>317</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -5449,13 +5597,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D195" t="s">
         <v>258</v>
@@ -5463,10 +5611,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -5477,10 +5625,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -5490,28 +5638,28 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>698</v>
+      <c r="A198" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B198" t="s">
+        <v>323</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
       </c>
       <c r="D198" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>698</v>
+      <c r="A199" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B199" t="s">
+        <v>655</v>
+      </c>
+      <c r="C199" t="s">
+        <v>205</v>
       </c>
       <c r="D199" t="s">
         <v>258</v>
@@ -5519,10 +5667,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B200" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C200" t="s">
         <v>7</v>
@@ -5533,10 +5681,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B201" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C201" t="s">
         <v>7</v>
@@ -5547,10 +5695,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B202" t="s">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -5561,10 +5709,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B203" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -5574,14 +5722,14 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>698</v>
+      <c r="A204" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
       </c>
       <c r="D204" t="s">
         <v>258</v>
@@ -5589,10 +5737,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>348</v>
+        <v>92</v>
       </c>
       <c r="B205" t="s">
-        <v>349</v>
+        <v>93</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -5603,10 +5751,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B206" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5617,10 +5765,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B207" t="s">
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="C207" t="s">
         <v>7</v>
@@ -5631,10 +5779,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B208" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -5645,13 +5793,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B209" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D209" t="s">
         <v>258</v>
@@ -5659,27 +5807,27 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>357</v>
+        <v>104</v>
       </c>
       <c r="B210" t="s">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D210" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>698</v>
+      <c r="A211" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B211" t="s">
+        <v>709</v>
+      </c>
+      <c r="C211" t="s">
+        <v>7</v>
       </c>
       <c r="D211" t="s">
         <v>258</v>
@@ -5687,10 +5835,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="B212" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="C212" t="s">
         <v>7</v>
@@ -5701,10 +5849,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B213" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C213" t="s">
         <v>7</v>
@@ -5715,13 +5863,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>363</v>
+        <v>710</v>
       </c>
       <c r="B214" t="s">
-        <v>364</v>
+        <v>711</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D214" t="s">
         <v>258</v>
@@ -5729,10 +5877,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="B215" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -5743,10 +5891,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B216" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C216" t="s">
         <v>7</v>
@@ -5757,13 +5905,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="B217" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D217" t="s">
         <v>258</v>
@@ -5771,10 +5919,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B218" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -5785,10 +5933,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B219" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5799,10 +5947,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B220" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -5813,10 +5961,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B221" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -5827,10 +5975,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B222" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -5840,28 +5988,28 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>698</v>
+      <c r="A223" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B223" t="s">
+        <v>358</v>
+      </c>
+      <c r="C223" t="s">
+        <v>7</v>
       </c>
       <c r="D223" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>698</v>
+      <c r="A224" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B224" t="s">
+        <v>360</v>
+      </c>
+      <c r="C224" t="s">
+        <v>691</v>
       </c>
       <c r="D224" t="s">
         <v>258</v>
@@ -5869,10 +6017,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="B225" t="s">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5882,14 +6030,14 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>698</v>
+      <c r="A226" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B226" t="s">
+        <v>362</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
       </c>
       <c r="D226" t="s">
         <v>258</v>
@@ -5897,10 +6045,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B227" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5911,10 +6059,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="B228" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5925,13 +6073,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>394</v>
+        <v>712</v>
       </c>
       <c r="B229" t="s">
-        <v>395</v>
+        <v>713</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D229" t="s">
         <v>258</v>
@@ -5939,10 +6087,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="B230" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5953,10 +6101,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B231" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5967,13 +6115,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B232" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C232" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
         <v>258</v>
@@ -5981,13 +6129,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B233" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="C233" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
         <v>258</v>
@@ -5995,10 +6143,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B234" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -6009,10 +6157,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="B235" t="s">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -6023,10 +6171,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>166</v>
+        <v>379</v>
       </c>
       <c r="B236" t="s">
-        <v>167</v>
+        <v>380</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -6037,13 +6185,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B237" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D237" t="s">
         <v>258</v>
@@ -6051,13 +6199,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B238" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D238" t="s">
         <v>258</v>
@@ -6065,13 +6213,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B239" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C239" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D239" t="s">
         <v>258</v>
@@ -6079,13 +6227,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B240" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D240" t="s">
         <v>258</v>
@@ -6093,10 +6241,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B241" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -6106,28 +6254,28 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>698</v>
+      <c r="A242" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B242" t="s">
+        <v>391</v>
+      </c>
+      <c r="C242" t="s">
+        <v>7</v>
       </c>
       <c r="D242" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>698</v>
+      <c r="A243" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B243" t="s">
+        <v>395</v>
+      </c>
+      <c r="C243" t="s">
+        <v>7</v>
       </c>
       <c r="D243" t="s">
         <v>258</v>
@@ -6135,10 +6283,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -6149,10 +6297,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B245" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -6162,28 +6310,28 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>698</v>
+      <c r="A246" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B246" t="s">
+        <v>399</v>
+      </c>
+      <c r="C246" t="s">
+        <v>205</v>
       </c>
       <c r="D246" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>698</v>
+      <c r="A247" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B247" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247" t="s">
+        <v>205</v>
       </c>
       <c r="D247" t="s">
         <v>258</v>
@@ -6191,13 +6339,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B248" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D248" t="s">
         <v>258</v>
@@ -6205,10 +6353,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
       <c r="B249" t="s">
-        <v>196</v>
+        <v>403</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
@@ -6219,10 +6367,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>419</v>
+        <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>420</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -6232,14 +6380,14 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>698</v>
+      <c r="A251" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B251" t="s">
+        <v>167</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7</v>
       </c>
       <c r="D251" t="s">
         <v>258</v>
@@ -6247,10 +6395,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B252" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
@@ -6261,10 +6409,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B253" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6275,13 +6423,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D254" t="s">
         <v>258</v>
@@ -6289,13 +6437,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B255" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C255" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
         <v>258</v>
@@ -6303,13 +6451,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B256" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C256" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
         <v>258</v>
@@ -6317,13 +6465,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>435</v>
+        <v>177</v>
       </c>
       <c r="B257" t="s">
-        <v>430</v>
+        <v>275</v>
       </c>
       <c r="C257" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="D257" t="s">
         <v>258</v>
@@ -6331,13 +6479,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>431</v>
+        <v>179</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="C258" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="D258" t="s">
         <v>258</v>
@@ -6345,13 +6493,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>432</v>
+        <v>183</v>
       </c>
       <c r="B259" t="s">
-        <v>433</v>
+        <v>184</v>
       </c>
       <c r="C259" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
         <v>258</v>
@@ -6359,13 +6507,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B260" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="C260" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D260" t="s">
         <v>258</v>
@@ -6373,13 +6521,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>436</v>
+        <v>187</v>
       </c>
       <c r="B261" t="s">
-        <v>434</v>
+        <v>188</v>
       </c>
       <c r="C261" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="D261" t="s">
         <v>258</v>
@@ -6387,10 +6535,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>443</v>
+        <v>716</v>
       </c>
       <c r="B262" t="s">
-        <v>438</v>
+        <v>717</v>
       </c>
       <c r="C262" t="s">
         <v>205</v>
@@ -6401,13 +6549,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="B263" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="C263" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="D263" t="s">
         <v>258</v>
@@ -6415,13 +6563,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="B264" t="s">
-        <v>442</v>
+        <v>254</v>
       </c>
       <c r="C264" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D264" t="s">
         <v>258</v>
@@ -6429,13 +6577,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>437</v>
+        <v>195</v>
       </c>
       <c r="B265" t="s">
-        <v>441</v>
+        <v>196</v>
       </c>
       <c r="C265" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D265" t="s">
         <v>258</v>
@@ -6443,13 +6591,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>6</v>
+        <v>419</v>
       </c>
       <c r="B266" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C266" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
         <v>258</v>
@@ -6457,206 +6605,206 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>445</v>
+        <v>201</v>
       </c>
       <c r="B267" t="s">
-        <v>446</v>
+        <v>202</v>
       </c>
       <c r="C267" t="s">
+        <v>691</v>
+      </c>
+      <c r="D267" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B268" t="s">
+        <v>422</v>
+      </c>
+      <c r="C268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B269" t="s">
+        <v>424</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B270" t="s">
+        <v>426</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B271" t="s">
+        <v>427</v>
+      </c>
+      <c r="C271" t="s">
         <v>205</v>
       </c>
-      <c r="D267" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>449</v>
-      </c>
-      <c r="B268" t="s">
-        <v>450</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="D271" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B272" t="s">
+        <v>430</v>
+      </c>
+      <c r="C272" t="s">
+        <v>205</v>
+      </c>
+      <c r="D272" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B273" t="s">
+        <v>437</v>
+      </c>
+      <c r="C273" t="s">
+        <v>205</v>
+      </c>
+      <c r="D273" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B274" t="s">
+        <v>433</v>
+      </c>
+      <c r="C274" t="s">
+        <v>205</v>
+      </c>
+      <c r="D274" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B275" t="s">
+        <v>434</v>
+      </c>
+      <c r="C275" t="s">
+        <v>205</v>
+      </c>
+      <c r="D275" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B276" t="s">
+        <v>435</v>
+      </c>
+      <c r="C276" t="s">
+        <v>205</v>
+      </c>
+      <c r="D276" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>439</v>
+      </c>
+      <c r="C277" t="s">
+        <v>205</v>
+      </c>
+      <c r="D277" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B278" t="s">
+        <v>438</v>
+      </c>
+      <c r="C278" t="s">
+        <v>205</v>
+      </c>
+      <c r="D278" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>441</v>
+      </c>
+      <c r="C279" t="s">
+        <v>205</v>
+      </c>
+      <c r="D279" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>443</v>
+      </c>
+      <c r="B280" t="s">
+        <v>444</v>
+      </c>
+      <c r="C280" t="s">
         <v>16</v>
       </c>
-      <c r="D268" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="2" t="s">
+      <c r="D280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B281" t="s">
         <v>286</v>
-      </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>291</v>
-      </c>
-      <c r="B270" t="s">
-        <v>292</v>
-      </c>
-      <c r="C270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>451</v>
-      </c>
-      <c r="B271" t="s">
-        <v>439</v>
-      </c>
-      <c r="C271" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>452</v>
-      </c>
-      <c r="B272" t="s">
-        <v>453</v>
-      </c>
-      <c r="C272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>295</v>
-      </c>
-      <c r="B273" t="s">
-        <v>296</v>
-      </c>
-      <c r="C273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>454</v>
-      </c>
-      <c r="B274" t="s">
-        <v>455</v>
-      </c>
-      <c r="C274" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>25</v>
-      </c>
-      <c r="B275" t="s">
-        <v>26</v>
-      </c>
-      <c r="C275" t="s">
-        <v>7</v>
-      </c>
-      <c r="D275" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B276" t="s">
-        <v>457</v>
-      </c>
-      <c r="C276" t="s">
-        <v>7</v>
-      </c>
-      <c r="D276" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B277" t="s">
-        <v>459</v>
-      </c>
-      <c r="C277" t="s">
-        <v>7</v>
-      </c>
-      <c r="D277" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B278" t="s">
-        <v>460</v>
-      </c>
-      <c r="C278" t="s">
-        <v>16</v>
-      </c>
-      <c r="D278" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B279" t="s">
-        <v>45</v>
-      </c>
-      <c r="C279" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B280" t="s">
-        <v>32</v>
-      </c>
-      <c r="C280" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>302</v>
-      </c>
-      <c r="B281" t="s">
-        <v>463</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
@@ -6667,10 +6815,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C282" t="s">
         <v>7</v>
@@ -6680,11 +6828,11 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
-        <v>53</v>
+      <c r="A283" t="s">
+        <v>445</v>
       </c>
       <c r="B283" t="s">
-        <v>33</v>
+        <v>436</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -6694,11 +6842,11 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
-        <v>54</v>
+      <c r="A284" t="s">
+        <v>446</v>
       </c>
       <c r="B284" t="s">
-        <v>34</v>
+        <v>447</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6709,10 +6857,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="B285" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -6723,10 +6871,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B286" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C286" t="s">
         <v>7</v>
@@ -6736,67 +6884,67 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="2" t="s">
-        <v>469</v>
+      <c r="A287" t="s">
+        <v>25</v>
       </c>
       <c r="B287" t="s">
-        <v>485</v>
+        <v>26</v>
       </c>
       <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B288" t="s">
+        <v>451</v>
+      </c>
+      <c r="C288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B289" t="s">
+        <v>453</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B290" t="s">
+        <v>454</v>
+      </c>
+      <c r="C290" t="s">
         <v>16</v>
       </c>
-      <c r="D287" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>470</v>
-      </c>
-      <c r="B288" t="s">
-        <v>466</v>
-      </c>
-      <c r="C288" t="s">
-        <v>7</v>
-      </c>
-      <c r="D288" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>471</v>
-      </c>
-      <c r="B289" t="s">
-        <v>467</v>
-      </c>
-      <c r="C289" t="s">
-        <v>205</v>
-      </c>
-      <c r="D289" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>472</v>
-      </c>
-      <c r="B290" t="s">
-        <v>473</v>
-      </c>
-      <c r="C290" t="s">
-        <v>7</v>
-      </c>
       <c r="D290" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>474</v>
+      <c r="A291" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B291" t="s">
-        <v>475</v>
+        <v>45</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -6806,11 +6954,11 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>476</v>
+      <c r="A292" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B292" t="s">
-        <v>477</v>
+        <v>32</v>
       </c>
       <c r="C292" t="s">
         <v>7</v>
@@ -6821,10 +6969,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>478</v>
+        <v>302</v>
       </c>
       <c r="B293" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C293" t="s">
         <v>7</v>
@@ -6835,10 +6983,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>480</v>
+        <v>306</v>
       </c>
       <c r="B294" t="s">
-        <v>481</v>
+        <v>307</v>
       </c>
       <c r="C294" t="s">
         <v>7</v>
@@ -6849,10 +6997,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>482</v>
+        <v>53</v>
       </c>
       <c r="B295" t="s">
-        <v>483</v>
+        <v>33</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
@@ -6863,10 +7011,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B296" t="s">
-        <v>484</v>
+        <v>34</v>
       </c>
       <c r="C296" t="s">
         <v>7</v>
@@ -6877,10 +7025,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="B297" t="s">
-        <v>264</v>
+        <v>455</v>
       </c>
       <c r="C297" t="s">
         <v>7</v>
@@ -6891,10 +7039,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>92</v>
+        <v>462</v>
       </c>
       <c r="B298" t="s">
-        <v>93</v>
+        <v>459</v>
       </c>
       <c r="C298" t="s">
         <v>7</v>
@@ -6905,24 +7053,24 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>331</v>
+        <v>463</v>
       </c>
       <c r="B299" t="s">
-        <v>332</v>
+        <v>479</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="2" t="s">
-        <v>96</v>
+      <c r="A300" t="s">
+        <v>464</v>
       </c>
       <c r="B300" t="s">
-        <v>97</v>
+        <v>460</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
@@ -6933,10 +7081,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B301" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="C301" t="s">
         <v>205</v>
@@ -6946,42 +7094,42 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>698</v>
+      <c r="A302" t="s">
+        <v>466</v>
+      </c>
+      <c r="B302" t="s">
+        <v>467</v>
+      </c>
+      <c r="C302" t="s">
+        <v>7</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>698</v>
+      <c r="A303" t="s">
+        <v>468</v>
+      </c>
+      <c r="B303" t="s">
+        <v>469</v>
+      </c>
+      <c r="C303" t="s">
+        <v>7</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>698</v>
+      <c r="A304" t="s">
+        <v>470</v>
+      </c>
+      <c r="B304" t="s">
+        <v>471</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -6989,10 +7137,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B305" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C305" t="s">
         <v>7</v>
@@ -7002,14 +7150,14 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>698</v>
+      <c r="A306" t="s">
+        <v>474</v>
+      </c>
+      <c r="B306" t="s">
+        <v>475</v>
+      </c>
+      <c r="C306" t="s">
+        <v>7</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -7017,10 +7165,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="B307" t="s">
-        <v>349</v>
+        <v>477</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -7030,11 +7178,11 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>497</v>
+      <c r="A308" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B308" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C308" t="s">
         <v>7</v>
@@ -7045,10 +7193,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>499</v>
+        <v>88</v>
       </c>
       <c r="B309" t="s">
-        <v>500</v>
+        <v>264</v>
       </c>
       <c r="C309" t="s">
         <v>7</v>
@@ -7058,11 +7206,11 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
-        <v>501</v>
+      <c r="A310" t="s">
+        <v>92</v>
       </c>
       <c r="B310" t="s">
-        <v>502</v>
+        <v>93</v>
       </c>
       <c r="C310" t="s">
         <v>7</v>
@@ -7072,11 +7220,11 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>503</v>
+      <c r="A311" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="B311" t="s">
-        <v>504</v>
+        <v>332</v>
       </c>
       <c r="C311" t="s">
         <v>7</v>
@@ -7087,10 +7235,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B312" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C312" t="s">
         <v>7</v>
@@ -7101,41 +7249,41 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>235</v>
+        <v>480</v>
       </c>
       <c r="B313" t="s">
-        <v>236</v>
+        <v>481</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D313" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>505</v>
-      </c>
-      <c r="B314" t="s">
-        <v>506</v>
-      </c>
-      <c r="C314" t="s">
-        <v>7</v>
+      <c r="A314" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D314" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B315" t="s">
-        <v>508</v>
-      </c>
-      <c r="C315" t="s">
-        <v>7</v>
+      <c r="A315" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -7143,13 +7291,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>377</v>
+        <v>720</v>
       </c>
       <c r="B316" t="s">
-        <v>378</v>
+        <v>721</v>
       </c>
       <c r="C316" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D316" t="s">
         <v>2</v>
@@ -7157,10 +7305,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>509</v>
+        <v>722</v>
       </c>
       <c r="B317" t="s">
-        <v>141</v>
+        <v>723</v>
       </c>
       <c r="C317" t="s">
         <v>205</v>
@@ -7170,14 +7318,14 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>243</v>
-      </c>
-      <c r="B318" t="s">
-        <v>242</v>
-      </c>
-      <c r="C318" t="s">
-        <v>7</v>
+      <c r="A318" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D318" t="s">
         <v>2</v>
@@ -7185,10 +7333,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>144</v>
+        <v>486</v>
       </c>
       <c r="B319" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C319" t="s">
         <v>7</v>
@@ -7198,14 +7346,14 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="2" t="s">
-        <v>145</v>
+      <c r="A320" t="s">
+        <v>488</v>
       </c>
       <c r="B320" t="s">
-        <v>146</v>
+        <v>489</v>
       </c>
       <c r="C320" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
@@ -7213,10 +7361,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>147</v>
+        <v>490</v>
       </c>
       <c r="B321" t="s">
-        <v>148</v>
+        <v>349</v>
       </c>
       <c r="C321" t="s">
         <v>7</v>
@@ -7227,10 +7375,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>244</v>
+        <v>491</v>
       </c>
       <c r="B322" t="s">
-        <v>227</v>
+        <v>492</v>
       </c>
       <c r="C322" t="s">
         <v>7</v>
@@ -7240,14 +7388,14 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>698</v>
+      <c r="A323" t="s">
+        <v>108</v>
+      </c>
+      <c r="B323" t="s">
+        <v>109</v>
+      </c>
+      <c r="C323" t="s">
+        <v>205</v>
       </c>
       <c r="D323" t="s">
         <v>2</v>
@@ -7255,13 +7403,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>513</v>
+        <v>724</v>
       </c>
       <c r="B324" t="s">
-        <v>514</v>
+        <v>725</v>
       </c>
       <c r="C324" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D324" t="s">
         <v>2</v>
@@ -7269,10 +7417,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="B325" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C325" t="s">
         <v>7</v>
@@ -7282,11 +7430,11 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>517</v>
+      <c r="A326" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="B326" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -7296,11 +7444,11 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="2" t="s">
-        <v>519</v>
+      <c r="A327" t="s">
+        <v>497</v>
       </c>
       <c r="B327" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C327" t="s">
         <v>7</v>
@@ -7310,11 +7458,11 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>402</v>
+      <c r="A328" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="B328" t="s">
-        <v>403</v>
+        <v>129</v>
       </c>
       <c r="C328" t="s">
         <v>7</v>
@@ -7324,14 +7472,14 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="2" t="s">
-        <v>521</v>
+      <c r="A329" t="s">
+        <v>235</v>
       </c>
       <c r="B329" t="s">
-        <v>392</v>
+        <v>236</v>
       </c>
       <c r="C329" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D329" t="s">
         <v>2</v>
@@ -7339,10 +7487,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>168</v>
+        <v>499</v>
       </c>
       <c r="B330" t="s">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="C330" t="s">
         <v>7</v>
@@ -7353,10 +7501,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="B331" t="s">
-        <v>170</v>
+        <v>502</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -7366,11 +7514,11 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>523</v>
+      <c r="A332" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="B332" t="s">
-        <v>524</v>
+        <v>726</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
@@ -7381,13 +7529,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>525</v>
+        <v>377</v>
       </c>
       <c r="B333" t="s">
-        <v>526</v>
+        <v>378</v>
       </c>
       <c r="C333" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -7395,27 +7543,27 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B334" t="s">
-        <v>528</v>
+        <v>141</v>
       </c>
       <c r="C334" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>698</v>
+      <c r="A335" t="s">
+        <v>243</v>
+      </c>
+      <c r="B335" t="s">
+        <v>242</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -7423,13 +7571,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>530</v>
+        <v>144</v>
       </c>
       <c r="B336" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="C336" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -7437,10 +7585,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B337" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C337" t="s">
         <v>7</v>
@@ -7450,14 +7598,14 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>698</v>
+      <c r="A338" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B338" t="s">
+        <v>148</v>
+      </c>
+      <c r="C338" t="s">
+        <v>7</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -7465,27 +7613,27 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>534</v>
+        <v>244</v>
       </c>
       <c r="B339" t="s">
-        <v>522</v>
+        <v>227</v>
       </c>
       <c r="C339" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D339" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>535</v>
-      </c>
-      <c r="B340" t="s">
-        <v>536</v>
-      </c>
-      <c r="C340" t="s">
-        <v>7</v>
+      <c r="A340" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -7493,10 +7641,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="B341" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="C341" t="s">
         <v>7</v>
@@ -7506,11 +7654,11 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
-        <v>195</v>
+      <c r="A342" t="s">
+        <v>509</v>
       </c>
       <c r="B342" t="s">
-        <v>196</v>
+        <v>510</v>
       </c>
       <c r="C342" t="s">
         <v>7</v>
@@ -7521,10 +7669,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="B343" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="C343" t="s">
         <v>7</v>
@@ -7534,11 +7682,11 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>541</v>
+      <c r="A344" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="B344" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C344" t="s">
         <v>7</v>
@@ -7548,11 +7696,11 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="2" t="s">
-        <v>543</v>
+      <c r="A345" t="s">
+        <v>402</v>
       </c>
       <c r="B345" t="s">
-        <v>544</v>
+        <v>403</v>
       </c>
       <c r="C345" t="s">
         <v>7</v>
@@ -7563,10 +7711,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="B346" t="s">
-        <v>545</v>
+        <v>392</v>
       </c>
       <c r="C346" t="s">
         <v>205</v>
@@ -7577,13 +7725,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>547</v>
+        <v>250</v>
       </c>
       <c r="B347" t="s">
-        <v>548</v>
+        <v>251</v>
       </c>
       <c r="C347" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D347" t="s">
         <v>2</v>
@@ -7591,10 +7739,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>550</v>
+        <v>168</v>
       </c>
       <c r="B348" t="s">
-        <v>549</v>
+        <v>160</v>
       </c>
       <c r="C348" t="s">
         <v>205</v>
@@ -7604,14 +7752,14 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>551</v>
+      <c r="A349" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="B349" t="s">
-        <v>568</v>
+        <v>170</v>
       </c>
       <c r="C349" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D349" t="s">
         <v>2</v>
@@ -7619,13 +7767,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="B350" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="C350" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D350" t="s">
         <v>2</v>
@@ -7633,13 +7781,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="B351" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="C351" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D351" t="s">
         <v>2</v>
@@ -7647,27 +7795,27 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="B352" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="C352" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D352" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>556</v>
-      </c>
-      <c r="B353" t="s">
-        <v>557</v>
-      </c>
-      <c r="C353" t="s">
-        <v>205</v>
+      <c r="A353" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D353" t="s">
         <v>2</v>
@@ -7675,10 +7823,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B354" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="C354" t="s">
         <v>205</v>
@@ -7688,28 +7836,28 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>560</v>
+      <c r="A355" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="B355" t="s">
-        <v>561</v>
+        <v>184</v>
       </c>
       <c r="C355" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D355" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>562</v>
-      </c>
-      <c r="B356" t="s">
-        <v>563</v>
-      </c>
-      <c r="C356" t="s">
-        <v>205</v>
+      <c r="A356" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="D356" t="s">
         <v>2</v>
@@ -7717,13 +7865,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="B357" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="C357" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D357" t="s">
         <v>2</v>
@@ -7731,13 +7879,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="B358" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="C358" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D358" t="s">
         <v>2</v>
@@ -7745,41 +7893,41 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="B359" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="C359" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D359" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>573</v>
+      <c r="A360" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B360" t="s">
-        <v>574</v>
+        <v>196</v>
       </c>
       <c r="C360" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D360" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="2" t="s">
-        <v>575</v>
+      <c r="A361" t="s">
+        <v>533</v>
       </c>
       <c r="B361" t="s">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="C361" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D361" t="s">
         <v>2</v>
@@ -7787,27 +7935,27 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="B362" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="C362" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D362" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>578</v>
+      <c r="A363" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="B363" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="C363" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -7815,10 +7963,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="B364" t="s">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="C364" t="s">
         <v>205</v>
@@ -7829,10 +7977,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="B365" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="C365" t="s">
         <v>205</v>
@@ -7843,10 +7991,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="B366" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="C366" t="s">
         <v>205</v>
@@ -7857,10 +8005,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="B367" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="C367" t="s">
         <v>205</v>
@@ -7870,11 +8018,11 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="2" t="s">
-        <v>587</v>
+      <c r="A368" t="s">
+        <v>546</v>
       </c>
       <c r="B368" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="C368" t="s">
         <v>205</v>
@@ -7885,10 +8033,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="B369" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="C369" t="s">
         <v>205</v>
@@ -7899,10 +8047,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B370" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="C370" t="s">
         <v>205</v>
@@ -7913,10 +8061,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="B371" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="C371" t="s">
         <v>205</v>
@@ -7927,10 +8075,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="B372" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="C372" t="s">
         <v>205</v>
@@ -7941,10 +8089,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="B373" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="C373" t="s">
         <v>205</v>
@@ -7955,27 +8103,27 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="B374" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="C374" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D374" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="2" t="s">
-        <v>599</v>
+      <c r="A375" t="s">
+        <v>558</v>
       </c>
       <c r="B375" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="C375" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D375" t="s">
         <v>2</v>
@@ -7983,10 +8131,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="B376" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="C376" t="s">
         <v>205</v>
@@ -7997,10 +8145,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="B377" t="s">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="C377" t="s">
         <v>205</v>
@@ -8011,10 +8159,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="B378" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="C378" t="s">
         <v>205</v>
@@ -8024,11 +8172,11 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>606</v>
+      <c r="A379" s="2" t="s">
+        <v>569</v>
       </c>
       <c r="B379" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="C379" t="s">
         <v>205</v>
@@ -8038,11 +8186,11 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="2" t="s">
-        <v>608</v>
+      <c r="A380" t="s">
+        <v>569</v>
       </c>
       <c r="B380" t="s">
-        <v>609</v>
+        <v>730</v>
       </c>
       <c r="C380" t="s">
         <v>205</v>
@@ -8052,14 +8200,14 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="2" t="s">
-        <v>425</v>
+      <c r="A381" t="s">
+        <v>728</v>
       </c>
       <c r="B381" t="s">
-        <v>426</v>
+        <v>729</v>
       </c>
       <c r="C381" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D381" t="s">
         <v>2</v>
@@ -8067,363 +8215,363 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="B382" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="C382" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D382" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>650</v>
+        <v>571</v>
       </c>
       <c r="B383" t="s">
-        <v>651</v>
+        <v>572</v>
       </c>
       <c r="C383" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D383" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>291</v>
+      <c r="A384" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="B384" t="s">
-        <v>292</v>
+        <v>574</v>
       </c>
       <c r="C384" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D384" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>652</v>
+      <c r="A385" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="B385" t="s">
-        <v>460</v>
+        <v>733</v>
       </c>
       <c r="C385" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D385" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>653</v>
+      <c r="A386" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="B386" t="s">
-        <v>654</v>
+        <v>576</v>
       </c>
       <c r="C386" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D386" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>52</v>
+        <v>575</v>
       </c>
       <c r="B387" t="s">
-        <v>32</v>
+        <v>577</v>
       </c>
       <c r="C387" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D387" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>302</v>
+        <v>734</v>
       </c>
       <c r="B388" t="s">
-        <v>303</v>
+        <v>735</v>
       </c>
       <c r="C388" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D388" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>304</v>
+        <v>578</v>
       </c>
       <c r="B389" t="s">
-        <v>655</v>
+        <v>579</v>
       </c>
       <c r="C389" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D389" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="B390" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="C390" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D390" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>658</v>
+      <c r="A391" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="B391" t="s">
-        <v>34</v>
+        <v>581</v>
       </c>
       <c r="C391" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D391" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>659</v>
+        <v>580</v>
       </c>
       <c r="B392" t="s">
-        <v>660</v>
+        <v>582</v>
       </c>
       <c r="C392" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D392" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>661</v>
+        <v>544</v>
       </c>
       <c r="B393" t="s">
-        <v>662</v>
+        <v>583</v>
       </c>
       <c r="C393" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D393" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>663</v>
+        <v>584</v>
       </c>
       <c r="B394" t="s">
-        <v>664</v>
+        <v>585</v>
       </c>
       <c r="C394" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D394" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>86</v>
+        <v>586</v>
       </c>
       <c r="B395" t="s">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="C395" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D395" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>331</v>
+        <v>588</v>
       </c>
       <c r="B396" t="s">
-        <v>332</v>
+        <v>589</v>
       </c>
       <c r="C396" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D396" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>665</v>
+        <v>590</v>
       </c>
       <c r="B397" t="s">
-        <v>666</v>
+        <v>591</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
       </c>
       <c r="D397" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>667</v>
+      <c r="A398" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="B398" t="s">
-        <v>668</v>
+        <v>593</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
       </c>
       <c r="D398" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>336</v>
+        <v>594</v>
       </c>
       <c r="B399" t="s">
-        <v>669</v>
+        <v>595</v>
       </c>
       <c r="C399" t="s">
-        <v>698</v>
+        <v>205</v>
       </c>
       <c r="D399" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>670</v>
+        <v>594</v>
       </c>
       <c r="B400" t="s">
-        <v>106</v>
+        <v>596</v>
       </c>
       <c r="C400" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D400" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>110</v>
-      </c>
-      <c r="B401" t="s">
-        <v>111</v>
+      <c r="A401" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>740</v>
       </c>
       <c r="C401" t="s">
-        <v>7</v>
+        <v>691</v>
       </c>
       <c r="D401" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>671</v>
+        <v>597</v>
       </c>
       <c r="B402" t="s">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="C402" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D402" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>673</v>
+        <v>599</v>
       </c>
       <c r="B403" t="s">
-        <v>674</v>
+        <v>600</v>
       </c>
       <c r="C403" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D403" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>675</v>
+      <c r="A404" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="B404" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
       <c r="C404" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D404" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>677</v>
-      </c>
-      <c r="B405" t="s">
-        <v>678</v>
+      <c r="A405" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="C405" t="s">
         <v>7</v>
       </c>
       <c r="D405" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>363</v>
+      <c r="A406" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="B406" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="C406" t="s">
         <v>7</v>
       </c>
       <c r="D406" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>511</v>
+        <v>641</v>
       </c>
       <c r="B407" t="s">
-        <v>679</v>
+        <v>642</v>
       </c>
       <c r="C407" t="s">
-        <v>698</v>
+        <v>7</v>
       </c>
       <c r="D407" t="s">
         <v>3</v>
@@ -8431,10 +8579,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="B408" t="s">
-        <v>681</v>
+        <v>644</v>
       </c>
       <c r="C408" t="s">
         <v>7</v>
@@ -8445,10 +8593,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>682</v>
+        <v>291</v>
       </c>
       <c r="B409" t="s">
-        <v>683</v>
+        <v>292</v>
       </c>
       <c r="C409" t="s">
         <v>7</v>
@@ -8459,13 +8607,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>684</v>
+        <v>645</v>
       </c>
       <c r="B410" t="s">
-        <v>685</v>
+        <v>454</v>
       </c>
       <c r="C410" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D410" t="s">
         <v>3</v>
@@ -8473,10 +8621,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="B411" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="C411" t="s">
         <v>7</v>
@@ -8487,10 +8635,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>688</v>
+        <v>52</v>
       </c>
       <c r="B412" t="s">
-        <v>689</v>
+        <v>32</v>
       </c>
       <c r="C412" t="s">
         <v>7</v>
@@ -8501,10 +8649,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>690</v>
+        <v>302</v>
       </c>
       <c r="B413" t="s">
-        <v>691</v>
+        <v>303</v>
       </c>
       <c r="C413" t="s">
         <v>7</v>
@@ -8515,10 +8663,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>692</v>
+        <v>304</v>
       </c>
       <c r="B414" t="s">
-        <v>693</v>
+        <v>648</v>
       </c>
       <c r="C414" t="s">
         <v>7</v>
@@ -8529,10 +8677,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>189</v>
+        <v>649</v>
       </c>
       <c r="B415" t="s">
-        <v>190</v>
+        <v>650</v>
       </c>
       <c r="C415" t="s">
         <v>7</v>
@@ -8543,10 +8691,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="B416" t="s">
-        <v>695</v>
+        <v>34</v>
       </c>
       <c r="C416" t="s">
         <v>7</v>
@@ -8557,10 +8705,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
       <c r="B417" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="C417" t="s">
         <v>7</v>
@@ -8571,13 +8719,13 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="B418" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C418" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D418" t="s">
         <v>3</v>
@@ -8585,13 +8733,13 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="B419" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="C419" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D419" t="s">
         <v>3</v>
@@ -8599,13 +8747,13 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>614</v>
+        <v>86</v>
       </c>
       <c r="B420" t="s">
-        <v>615</v>
+        <v>87</v>
       </c>
       <c r="C420" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D420" t="s">
         <v>3</v>
@@ -8613,13 +8761,13 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>616</v>
+        <v>331</v>
       </c>
       <c r="B421" t="s">
-        <v>617</v>
+        <v>332</v>
       </c>
       <c r="C421" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -8627,13 +8775,13 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="B422" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="C422" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D422" t="s">
         <v>3</v>
@@ -8641,13 +8789,13 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="B423" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="C423" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D423" t="s">
         <v>3</v>
@@ -8655,13 +8803,13 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>622</v>
+        <v>336</v>
       </c>
       <c r="B424" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C424" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -8669,13 +8817,13 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="B425" t="s">
-        <v>625</v>
+        <v>106</v>
       </c>
       <c r="C425" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D425" t="s">
         <v>3</v>
@@ -8683,13 +8831,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>626</v>
+        <v>110</v>
       </c>
       <c r="B426" t="s">
-        <v>627</v>
+        <v>111</v>
       </c>
       <c r="C426" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D426" t="s">
         <v>3</v>
@@ -8697,13 +8845,13 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="B427" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="C427" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D427" t="s">
         <v>3</v>
@@ -8711,13 +8859,13 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="B428" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="C428" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -8725,13 +8873,13 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="B429" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="C429" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D429" t="s">
         <v>3</v>
@@ -8739,10 +8887,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="B430" t="s">
-        <v>80</v>
+        <v>671</v>
       </c>
       <c r="C430" t="s">
         <v>7</v>
@@ -8753,13 +8901,13 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>614</v>
+        <v>363</v>
       </c>
       <c r="B431" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="C431" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D431" t="s">
         <v>3</v>
@@ -8767,13 +8915,13 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>631</v>
+        <v>505</v>
       </c>
       <c r="B432" t="s">
-        <v>446</v>
+        <v>672</v>
       </c>
       <c r="C432" t="s">
-        <v>205</v>
+        <v>691</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -8781,13 +8929,13 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>616</v>
+        <v>673</v>
       </c>
       <c r="B433" t="s">
-        <v>446</v>
+        <v>674</v>
       </c>
       <c r="C433" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D433" t="s">
         <v>3</v>
@@ -8795,13 +8943,13 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="B434" t="s">
-        <v>446</v>
+        <v>676</v>
       </c>
       <c r="C434" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D434" t="s">
         <v>3</v>
@@ -8809,13 +8957,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="B435" t="s">
-        <v>446</v>
+        <v>678</v>
       </c>
       <c r="C435" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D435" t="s">
         <v>3</v>
@@ -8823,13 +8971,13 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="B436" t="s">
-        <v>448</v>
+        <v>680</v>
       </c>
       <c r="C436" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -8837,13 +8985,13 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="B437" t="s">
-        <v>448</v>
+        <v>682</v>
       </c>
       <c r="C437" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D437" t="s">
         <v>3</v>
@@ -8851,13 +8999,13 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="B438" t="s">
-        <v>448</v>
+        <v>684</v>
       </c>
       <c r="C438" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D438" t="s">
         <v>3</v>
@@ -8865,13 +9013,13 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
       <c r="B439" t="s">
-        <v>448</v>
+        <v>686</v>
       </c>
       <c r="C439" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D439" t="s">
         <v>3</v>
@@ -8879,13 +9027,13 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>636</v>
+        <v>189</v>
       </c>
       <c r="B440" t="s">
-        <v>448</v>
+        <v>190</v>
       </c>
       <c r="C440" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D440" t="s">
         <v>3</v>
@@ -8893,13 +9041,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>637</v>
+        <v>687</v>
       </c>
       <c r="B441" t="s">
-        <v>448</v>
+        <v>688</v>
       </c>
       <c r="C441" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D441" t="s">
         <v>3</v>
@@ -8907,13 +9055,13 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>624</v>
+        <v>689</v>
       </c>
       <c r="B442" t="s">
-        <v>446</v>
+        <v>690</v>
       </c>
       <c r="C442" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D442" t="s">
         <v>3</v>
@@ -8921,10 +9069,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>641</v>
+        <v>741</v>
       </c>
       <c r="B443" t="s">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="C443" t="s">
         <v>205</v>
@@ -8935,10 +9083,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="B444" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="C444" t="s">
         <v>205</v>
@@ -8949,13 +9097,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>206</v>
+        <v>605</v>
       </c>
       <c r="B445" t="s">
-        <v>643</v>
+        <v>606</v>
       </c>
       <c r="C445" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -8963,13 +9111,13 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="B446" t="s">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="C446" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D446" t="s">
         <v>3</v>
@@ -8977,15 +9125,379 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="B447" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="C447" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>611</v>
+      </c>
+      <c r="B448" t="s">
+        <v>612</v>
+      </c>
+      <c r="C448" t="s">
+        <v>205</v>
+      </c>
+      <c r="D448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>613</v>
+      </c>
+      <c r="B449" t="s">
+        <v>614</v>
+      </c>
+      <c r="C449" t="s">
+        <v>205</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>615</v>
+      </c>
+      <c r="B450" t="s">
+        <v>616</v>
+      </c>
+      <c r="C450" t="s">
+        <v>205</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>617</v>
+      </c>
+      <c r="B451" t="s">
+        <v>618</v>
+      </c>
+      <c r="C451" t="s">
+        <v>205</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>619</v>
+      </c>
+      <c r="B452" t="s">
+        <v>620</v>
+      </c>
+      <c r="C452" t="s">
+        <v>205</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>631</v>
+      </c>
+      <c r="B453" t="s">
+        <v>621</v>
+      </c>
+      <c r="C453" t="s">
+        <v>205</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>632</v>
+      </c>
+      <c r="B454" t="s">
+        <v>621</v>
+      </c>
+      <c r="C454" t="s">
+        <v>205</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>622</v>
+      </c>
+      <c r="B455" t="s">
+        <v>623</v>
+      </c>
+      <c r="C455" t="s">
+        <v>16</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>605</v>
+      </c>
+      <c r="B456" t="s">
+        <v>80</v>
+      </c>
+      <c r="C456" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>607</v>
+      </c>
+      <c r="B457" t="s">
+        <v>441</v>
+      </c>
+      <c r="C457" t="s">
+        <v>205</v>
+      </c>
+      <c r="D457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>624</v>
+      </c>
+      <c r="B458" t="s">
+        <v>441</v>
+      </c>
+      <c r="C458" t="s">
+        <v>205</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>609</v>
+      </c>
+      <c r="B459" t="s">
+        <v>441</v>
+      </c>
+      <c r="C459" t="s">
+        <v>205</v>
+      </c>
+      <c r="D459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>611</v>
+      </c>
+      <c r="B460" t="s">
+        <v>441</v>
+      </c>
+      <c r="C460" t="s">
+        <v>205</v>
+      </c>
+      <c r="D460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>625</v>
+      </c>
+      <c r="B461" t="s">
+        <v>441</v>
+      </c>
+      <c r="C461" t="s">
+        <v>205</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>615</v>
+      </c>
+      <c r="B462" t="s">
+        <v>442</v>
+      </c>
+      <c r="C462" t="s">
+        <v>205</v>
+      </c>
+      <c r="D462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>626</v>
+      </c>
+      <c r="B463" t="s">
+        <v>442</v>
+      </c>
+      <c r="C463" t="s">
+        <v>205</v>
+      </c>
+      <c r="D463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>627</v>
+      </c>
+      <c r="B464" t="s">
+        <v>442</v>
+      </c>
+      <c r="C464" t="s">
+        <v>205</v>
+      </c>
+      <c r="D464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>628</v>
+      </c>
+      <c r="B465" t="s">
+        <v>442</v>
+      </c>
+      <c r="C465" t="s">
+        <v>205</v>
+      </c>
+      <c r="D465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>629</v>
+      </c>
+      <c r="B466" t="s">
+        <v>442</v>
+      </c>
+      <c r="C466" t="s">
+        <v>205</v>
+      </c>
+      <c r="D466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>630</v>
+      </c>
+      <c r="B467" t="s">
+        <v>442</v>
+      </c>
+      <c r="C467" t="s">
+        <v>205</v>
+      </c>
+      <c r="D467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>617</v>
+      </c>
+      <c r="B468" t="s">
+        <v>441</v>
+      </c>
+      <c r="C468" t="s">
+        <v>205</v>
+      </c>
+      <c r="D468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>634</v>
+      </c>
+      <c r="B469" t="s">
+        <v>635</v>
+      </c>
+      <c r="C469" t="s">
+        <v>205</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>619</v>
+      </c>
+      <c r="B470" t="s">
+        <v>633</v>
+      </c>
+      <c r="C470" t="s">
+        <v>205</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>206</v>
+      </c>
+      <c r="B471" t="s">
+        <v>636</v>
+      </c>
+      <c r="C471" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>637</v>
+      </c>
+      <c r="B472" t="s">
+        <v>638</v>
+      </c>
+      <c r="C472" t="s">
+        <v>7</v>
+      </c>
+      <c r="D472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>639</v>
+      </c>
+      <c r="B473" t="s">
+        <v>640</v>
+      </c>
+      <c r="C473" t="s">
+        <v>7</v>
+      </c>
+      <c r="D473" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1702" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F11D1087-B267-47BC-958F-312390040B12}"/>
+  <xr:revisionPtr revIDLastSave="1703" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCC5B48-11FE-42B6-B92A-A7D98E45CC41}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2866,8 +2866,8 @@
   <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A443" sqref="A443"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>215</v>
       </c>

--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1703" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCC5B48-11FE-42B6-B92A-A7D98E45CC41}"/>
+  <xr:revisionPtr revIDLastSave="1704" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DF33F8-985F-4C86-A728-A6032D4B33A3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1679,9 +1679,6 @@
     <t>PROACASPP</t>
   </si>
   <si>
-    <t>Mesquite/Acacia species</t>
-  </si>
-  <si>
     <t>PSCA11</t>
   </si>
   <si>
@@ -2346,6 +2343,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trifolium sp. </t>
+  </si>
+  <si>
+    <t>Mesquite/Acacia spp.</t>
   </si>
 </sst>
 </file>
@@ -2866,8 +2866,8 @@
   <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114:XFD114"/>
+      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2881,7 +2881,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -3097,7 +3097,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3178,7 +3178,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -3195,7 +3195,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3209,7 +3209,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -3223,7 +3223,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -3293,7 +3293,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>693</v>
+      </c>
+      <c r="B37" t="s">
         <v>694</v>
-      </c>
-      <c r="B37" t="s">
-        <v>695</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -3475,7 +3475,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -3570,10 +3570,10 @@
         <v>336</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -3587,7 +3587,7 @@
         <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -3643,7 +3643,7 @@
         <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -3727,7 +3727,7 @@
         <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -3861,13 +3861,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -3951,7 +3951,7 @@
         <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -4147,7 +4147,7 @@
         <v>178</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -4161,7 +4161,7 @@
         <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -4203,7 +4203,7 @@
         <v>186</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -4217,7 +4217,7 @@
         <v>188</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -4315,7 +4315,7 @@
         <v>202</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B107" t="s">
         <v>701</v>
-      </c>
-      <c r="B107" t="s">
-        <v>702</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -4427,7 +4427,7 @@
         <v>213</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>38</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D112" t="s">
         <v>0</v>
@@ -4477,10 +4477,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B115" t="s">
         <v>694</v>
-      </c>
-      <c r="B115" t="s">
-        <v>695</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -4525,7 +4525,7 @@
         <v>105</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D118" t="s">
         <v>0</v>
@@ -4609,7 +4609,7 @@
         <v>232</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D124" t="s">
         <v>0</v>
@@ -4679,7 +4679,7 @@
         <v>241</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D129" t="s">
         <v>0</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B135" t="s">
         <v>703</v>
-      </c>
-      <c r="B135" t="s">
-        <v>704</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -4791,7 +4791,7 @@
         <v>180</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D137" t="s">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>252</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D138" t="s">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>188</v>
       </c>
       <c r="C139" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D139" t="s">
         <v>0</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B142" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -4889,7 +4889,7 @@
         <v>39</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>67</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -5015,7 +5015,7 @@
         <v>105</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -5043,7 +5043,7 @@
         <v>113</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -5211,7 +5211,7 @@
         <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -5225,7 +5225,7 @@
         <v>275</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -5239,7 +5239,7 @@
         <v>252</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D169" t="s">
         <v>1</v>
@@ -5561,7 +5561,7 @@
         <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D192" t="s">
         <v>258</v>
@@ -5603,7 +5603,7 @@
         <v>319</v>
       </c>
       <c r="C195" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D195" t="s">
         <v>258</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B199" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C199" t="s">
         <v>205</v>
@@ -5799,7 +5799,7 @@
         <v>337</v>
       </c>
       <c r="C209" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D209" t="s">
         <v>258</v>
@@ -5813,7 +5813,7 @@
         <v>105</v>
       </c>
       <c r="C210" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D210" t="s">
         <v>258</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B211" t="s">
         <v>708</v>
-      </c>
-      <c r="B211" t="s">
-        <v>709</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5863,10 +5863,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B214" t="s">
         <v>710</v>
-      </c>
-      <c r="B214" t="s">
-        <v>711</v>
       </c>
       <c r="C214" t="s">
         <v>205</v>
@@ -5911,7 +5911,7 @@
         <v>347</v>
       </c>
       <c r="C217" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D217" t="s">
         <v>258</v>
@@ -6009,7 +6009,7 @@
         <v>360</v>
       </c>
       <c r="C224" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D224" t="s">
         <v>258</v>
@@ -6073,10 +6073,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B229" t="s">
         <v>712</v>
-      </c>
-      <c r="B229" t="s">
-        <v>713</v>
       </c>
       <c r="C229" t="s">
         <v>205</v>
@@ -6191,7 +6191,7 @@
         <v>382</v>
       </c>
       <c r="C237" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D237" t="s">
         <v>258</v>
@@ -6205,7 +6205,7 @@
         <v>384</v>
       </c>
       <c r="C238" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D238" t="s">
         <v>258</v>
@@ -6233,7 +6233,7 @@
         <v>388</v>
       </c>
       <c r="C240" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D240" t="s">
         <v>258</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B247" t="s">
         <v>714</v>
-      </c>
-      <c r="B247" t="s">
-        <v>715</v>
       </c>
       <c r="C247" t="s">
         <v>205</v>
@@ -6471,7 +6471,7 @@
         <v>275</v>
       </c>
       <c r="C257" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D257" t="s">
         <v>258</v>
@@ -6485,7 +6485,7 @@
         <v>180</v>
       </c>
       <c r="C258" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D258" t="s">
         <v>258</v>
@@ -6527,7 +6527,7 @@
         <v>188</v>
       </c>
       <c r="C261" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D261" t="s">
         <v>258</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B262" t="s">
         <v>716</v>
-      </c>
-      <c r="B262" t="s">
-        <v>717</v>
       </c>
       <c r="C262" t="s">
         <v>205</v>
@@ -6555,7 +6555,7 @@
         <v>417</v>
       </c>
       <c r="C263" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D263" t="s">
         <v>258</v>
@@ -6611,7 +6611,7 @@
         <v>202</v>
       </c>
       <c r="C267" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D267" t="s">
         <v>258</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B275" t="s">
         <v>434</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B278" t="s">
         <v>438</v>
@@ -7269,7 +7269,7 @@
         <v>105</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D314" t="s">
         <v>2</v>
@@ -7283,7 +7283,7 @@
         <v>483</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -7291,10 +7291,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
+        <v>719</v>
+      </c>
+      <c r="B316" t="s">
         <v>720</v>
-      </c>
-      <c r="B316" t="s">
-        <v>721</v>
       </c>
       <c r="C316" t="s">
         <v>205</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
+        <v>721</v>
+      </c>
+      <c r="B317" t="s">
         <v>722</v>
-      </c>
-      <c r="B317" t="s">
-        <v>723</v>
       </c>
       <c r="C317" t="s">
         <v>205</v>
@@ -7325,7 +7325,7 @@
         <v>485</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D318" t="s">
         <v>2</v>
@@ -7353,7 +7353,7 @@
         <v>489</v>
       </c>
       <c r="C320" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>723</v>
+      </c>
+      <c r="B324" t="s">
         <v>724</v>
-      </c>
-      <c r="B324" t="s">
-        <v>725</v>
       </c>
       <c r="C324" t="s">
         <v>205</v>
@@ -7515,10 +7515,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B332" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C332" t="s">
         <v>7</v>
@@ -7633,7 +7633,7 @@
         <v>506</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -7784,7 +7784,7 @@
         <v>519</v>
       </c>
       <c r="B351" t="s">
-        <v>520</v>
+        <v>742</v>
       </c>
       <c r="C351" t="s">
         <v>16</v>
@@ -7795,10 +7795,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
+        <v>520</v>
+      </c>
+      <c r="B352" t="s">
         <v>521</v>
-      </c>
-      <c r="B352" t="s">
-        <v>522</v>
       </c>
       <c r="C352" t="s">
         <v>7</v>
@@ -7812,10 +7812,10 @@
         <v>177</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D353" t="s">
         <v>2</v>
@@ -7823,10 +7823,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>523</v>
+      </c>
+      <c r="B354" t="s">
         <v>524</v>
-      </c>
-      <c r="B354" t="s">
-        <v>525</v>
       </c>
       <c r="C354" t="s">
         <v>205</v>
@@ -7851,13 +7851,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="C356" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D356" t="s">
         <v>2</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B357" t="s">
         <v>516</v>
@@ -7879,10 +7879,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>528</v>
+      </c>
+      <c r="B358" t="s">
         <v>529</v>
-      </c>
-      <c r="B358" t="s">
-        <v>530</v>
       </c>
       <c r="C358" t="s">
         <v>7</v>
@@ -7893,10 +7893,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
+        <v>530</v>
+      </c>
+      <c r="B359" t="s">
         <v>531</v>
-      </c>
-      <c r="B359" t="s">
-        <v>532</v>
       </c>
       <c r="C359" t="s">
         <v>7</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>532</v>
+      </c>
+      <c r="B361" t="s">
         <v>533</v>
-      </c>
-      <c r="B361" t="s">
-        <v>534</v>
       </c>
       <c r="C361" t="s">
         <v>7</v>
@@ -7935,10 +7935,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
+        <v>534</v>
+      </c>
+      <c r="B362" t="s">
         <v>535</v>
-      </c>
-      <c r="B362" t="s">
-        <v>536</v>
       </c>
       <c r="C362" t="s">
         <v>7</v>
@@ -7949,10 +7949,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B363" t="s">
         <v>537</v>
-      </c>
-      <c r="B363" t="s">
-        <v>538</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -7963,10 +7963,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B364" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C364" t="s">
         <v>205</v>
@@ -7977,10 +7977,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B365" t="s">
         <v>541</v>
-      </c>
-      <c r="B365" t="s">
-        <v>542</v>
       </c>
       <c r="C365" t="s">
         <v>205</v>
@@ -7991,10 +7991,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B366" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C366" t="s">
         <v>205</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B367" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C367" t="s">
         <v>205</v>
@@ -8019,10 +8019,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B368" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C368" t="s">
         <v>205</v>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
+        <v>546</v>
+      </c>
+      <c r="B369" t="s">
         <v>547</v>
-      </c>
-      <c r="B369" t="s">
-        <v>548</v>
       </c>
       <c r="C369" t="s">
         <v>205</v>
@@ -8047,10 +8047,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B370" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C370" t="s">
         <v>205</v>
@@ -8061,10 +8061,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
+        <v>549</v>
+      </c>
+      <c r="B371" t="s">
         <v>550</v>
-      </c>
-      <c r="B371" t="s">
-        <v>551</v>
       </c>
       <c r="C371" t="s">
         <v>205</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
+        <v>551</v>
+      </c>
+      <c r="B372" t="s">
         <v>552</v>
-      </c>
-      <c r="B372" t="s">
-        <v>553</v>
       </c>
       <c r="C372" t="s">
         <v>205</v>
@@ -8089,10 +8089,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
+        <v>553</v>
+      </c>
+      <c r="B373" t="s">
         <v>554</v>
-      </c>
-      <c r="B373" t="s">
-        <v>555</v>
       </c>
       <c r="C373" t="s">
         <v>205</v>
@@ -8103,10 +8103,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
+        <v>555</v>
+      </c>
+      <c r="B374" t="s">
         <v>556</v>
-      </c>
-      <c r="B374" t="s">
-        <v>557</v>
       </c>
       <c r="C374" t="s">
         <v>205</v>
@@ -8117,10 +8117,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
+        <v>557</v>
+      </c>
+      <c r="B375" t="s">
         <v>558</v>
-      </c>
-      <c r="B375" t="s">
-        <v>559</v>
       </c>
       <c r="C375" t="s">
         <v>205</v>
@@ -8131,10 +8131,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
+        <v>559</v>
+      </c>
+      <c r="B376" t="s">
         <v>560</v>
-      </c>
-      <c r="B376" t="s">
-        <v>561</v>
       </c>
       <c r="C376" t="s">
         <v>205</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
+        <v>564</v>
+      </c>
+      <c r="B377" t="s">
         <v>565</v>
-      </c>
-      <c r="B377" t="s">
-        <v>566</v>
       </c>
       <c r="C377" t="s">
         <v>205</v>
@@ -8159,10 +8159,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
+        <v>566</v>
+      </c>
+      <c r="B378" t="s">
         <v>567</v>
-      </c>
-      <c r="B378" t="s">
-        <v>568</v>
       </c>
       <c r="C378" t="s">
         <v>205</v>
@@ -8173,10 +8173,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B379" t="s">
         <v>569</v>
-      </c>
-      <c r="B379" t="s">
-        <v>570</v>
       </c>
       <c r="C379" t="s">
         <v>205</v>
@@ -8187,10 +8187,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B380" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C380" t="s">
         <v>205</v>
@@ -8201,10 +8201,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
+        <v>727</v>
+      </c>
+      <c r="B381" t="s">
         <v>728</v>
-      </c>
-      <c r="B381" t="s">
-        <v>729</v>
       </c>
       <c r="C381" t="s">
         <v>205</v>
@@ -8215,10 +8215,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B382" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C382" t="s">
         <v>205</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
+        <v>570</v>
+      </c>
+      <c r="B383" t="s">
         <v>571</v>
-      </c>
-      <c r="B383" t="s">
-        <v>572</v>
       </c>
       <c r="C383" t="s">
         <v>205</v>
@@ -8243,10 +8243,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B384" t="s">
         <v>573</v>
-      </c>
-      <c r="B384" t="s">
-        <v>574</v>
       </c>
       <c r="C384" t="s">
         <v>205</v>
@@ -8257,10 +8257,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B385" t="s">
         <v>732</v>
-      </c>
-      <c r="B385" t="s">
-        <v>733</v>
       </c>
       <c r="C385" t="s">
         <v>205</v>
@@ -8271,10 +8271,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B386" t="s">
         <v>575</v>
-      </c>
-      <c r="B386" t="s">
-        <v>576</v>
       </c>
       <c r="C386" t="s">
         <v>205</v>
@@ -8285,10 +8285,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B387" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C387" t="s">
         <v>205</v>
@@ -8299,10 +8299,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>733</v>
+      </c>
+      <c r="B388" t="s">
         <v>734</v>
-      </c>
-      <c r="B388" t="s">
-        <v>735</v>
       </c>
       <c r="C388" t="s">
         <v>205</v>
@@ -8313,10 +8313,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
+        <v>577</v>
+      </c>
+      <c r="B389" t="s">
         <v>578</v>
-      </c>
-      <c r="B389" t="s">
-        <v>579</v>
       </c>
       <c r="C389" t="s">
         <v>205</v>
@@ -8327,10 +8327,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
+        <v>735</v>
+      </c>
+      <c r="B390" t="s">
         <v>736</v>
-      </c>
-      <c r="B390" t="s">
-        <v>737</v>
       </c>
       <c r="C390" t="s">
         <v>205</v>
@@ -8341,10 +8341,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B391" t="s">
         <v>580</v>
-      </c>
-      <c r="B391" t="s">
-        <v>581</v>
       </c>
       <c r="C391" t="s">
         <v>205</v>
@@ -8355,10 +8355,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B392" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C392" t="s">
         <v>205</v>
@@ -8369,10 +8369,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B393" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C393" t="s">
         <v>205</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
+        <v>583</v>
+      </c>
+      <c r="B394" t="s">
         <v>584</v>
-      </c>
-      <c r="B394" t="s">
-        <v>585</v>
       </c>
       <c r="C394" t="s">
         <v>205</v>
@@ -8397,10 +8397,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>585</v>
+      </c>
+      <c r="B395" t="s">
         <v>586</v>
-      </c>
-      <c r="B395" t="s">
-        <v>587</v>
       </c>
       <c r="C395" t="s">
         <v>205</v>
@@ -8411,10 +8411,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
+        <v>587</v>
+      </c>
+      <c r="B396" t="s">
         <v>588</v>
-      </c>
-      <c r="B396" t="s">
-        <v>589</v>
       </c>
       <c r="C396" t="s">
         <v>205</v>
@@ -8425,10 +8425,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
+        <v>589</v>
+      </c>
+      <c r="B397" t="s">
         <v>590</v>
-      </c>
-      <c r="B397" t="s">
-        <v>591</v>
       </c>
       <c r="C397" t="s">
         <v>7</v>
@@ -8439,10 +8439,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B398" t="s">
         <v>592</v>
-      </c>
-      <c r="B398" t="s">
-        <v>593</v>
       </c>
       <c r="C398" t="s">
         <v>7</v>
@@ -8453,10 +8453,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
+        <v>593</v>
+      </c>
+      <c r="B399" t="s">
         <v>594</v>
-      </c>
-      <c r="B399" t="s">
-        <v>595</v>
       </c>
       <c r="C399" t="s">
         <v>205</v>
@@ -8467,10 +8467,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B400" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C400" t="s">
         <v>205</v>
@@ -8481,13 +8481,13 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C401" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -8495,10 +8495,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
+        <v>596</v>
+      </c>
+      <c r="B402" t="s">
         <v>597</v>
-      </c>
-      <c r="B402" t="s">
-        <v>598</v>
       </c>
       <c r="C402" t="s">
         <v>205</v>
@@ -8509,10 +8509,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
+        <v>598</v>
+      </c>
+      <c r="B403" t="s">
         <v>599</v>
-      </c>
-      <c r="B403" t="s">
-        <v>600</v>
       </c>
       <c r="C403" t="s">
         <v>205</v>
@@ -8523,10 +8523,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B404" t="s">
         <v>601</v>
-      </c>
-      <c r="B404" t="s">
-        <v>602</v>
       </c>
       <c r="C404" t="s">
         <v>205</v>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C405" t="s">
         <v>7</v>
@@ -8565,10 +8565,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
+        <v>640</v>
+      </c>
+      <c r="B407" t="s">
         <v>641</v>
-      </c>
-      <c r="B407" t="s">
-        <v>642</v>
       </c>
       <c r="C407" t="s">
         <v>7</v>
@@ -8579,10 +8579,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
+        <v>642</v>
+      </c>
+      <c r="B408" t="s">
         <v>643</v>
-      </c>
-      <c r="B408" t="s">
-        <v>644</v>
       </c>
       <c r="C408" t="s">
         <v>7</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B410" t="s">
         <v>454</v>
@@ -8621,10 +8621,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
+        <v>645</v>
+      </c>
+      <c r="B411" t="s">
         <v>646</v>
-      </c>
-      <c r="B411" t="s">
-        <v>647</v>
       </c>
       <c r="C411" t="s">
         <v>7</v>
@@ -8666,7 +8666,7 @@
         <v>304</v>
       </c>
       <c r="B414" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C414" t="s">
         <v>7</v>
@@ -8677,10 +8677,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
+        <v>648</v>
+      </c>
+      <c r="B415" t="s">
         <v>649</v>
-      </c>
-      <c r="B415" t="s">
-        <v>650</v>
       </c>
       <c r="C415" t="s">
         <v>7</v>
@@ -8691,7 +8691,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B416" t="s">
         <v>34</v>
@@ -8705,10 +8705,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
+        <v>651</v>
+      </c>
+      <c r="B417" t="s">
         <v>652</v>
-      </c>
-      <c r="B417" t="s">
-        <v>653</v>
       </c>
       <c r="C417" t="s">
         <v>7</v>
@@ -8719,10 +8719,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
+        <v>653</v>
+      </c>
+      <c r="B418" t="s">
         <v>654</v>
-      </c>
-      <c r="B418" t="s">
-        <v>655</v>
       </c>
       <c r="C418" t="s">
         <v>7</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
+        <v>655</v>
+      </c>
+      <c r="B419" t="s">
         <v>656</v>
-      </c>
-      <c r="B419" t="s">
-        <v>657</v>
       </c>
       <c r="C419" t="s">
         <v>7</v>
@@ -8775,10 +8775,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>657</v>
+      </c>
+      <c r="B422" t="s">
         <v>658</v>
-      </c>
-      <c r="B422" t="s">
-        <v>659</v>
       </c>
       <c r="C422" t="s">
         <v>7</v>
@@ -8789,10 +8789,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>659</v>
+      </c>
+      <c r="B423" t="s">
         <v>660</v>
-      </c>
-      <c r="B423" t="s">
-        <v>661</v>
       </c>
       <c r="C423" t="s">
         <v>7</v>
@@ -8806,10 +8806,10 @@
         <v>336</v>
       </c>
       <c r="B424" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C424" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D424" t="s">
         <v>3</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B425" t="s">
         <v>106</v>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>663</v>
+      </c>
+      <c r="B427" t="s">
         <v>664</v>
-      </c>
-      <c r="B427" t="s">
-        <v>665</v>
       </c>
       <c r="C427" t="s">
         <v>7</v>
@@ -8859,10 +8859,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
+        <v>665</v>
+      </c>
+      <c r="B428" t="s">
         <v>666</v>
-      </c>
-      <c r="B428" t="s">
-        <v>667</v>
       </c>
       <c r="C428" t="s">
         <v>7</v>
@@ -8873,10 +8873,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>667</v>
+      </c>
+      <c r="B429" t="s">
         <v>668</v>
-      </c>
-      <c r="B429" t="s">
-        <v>669</v>
       </c>
       <c r="C429" t="s">
         <v>7</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
+        <v>669</v>
+      </c>
+      <c r="B430" t="s">
         <v>670</v>
-      </c>
-      <c r="B430" t="s">
-        <v>671</v>
       </c>
       <c r="C430" t="s">
         <v>7</v>
@@ -8918,10 +8918,10 @@
         <v>505</v>
       </c>
       <c r="B432" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C432" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D432" t="s">
         <v>3</v>
@@ -8929,10 +8929,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
+        <v>672</v>
+      </c>
+      <c r="B433" t="s">
         <v>673</v>
-      </c>
-      <c r="B433" t="s">
-        <v>674</v>
       </c>
       <c r="C433" t="s">
         <v>7</v>
@@ -8943,10 +8943,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
+        <v>674</v>
+      </c>
+      <c r="B434" t="s">
         <v>675</v>
-      </c>
-      <c r="B434" t="s">
-        <v>676</v>
       </c>
       <c r="C434" t="s">
         <v>7</v>
@@ -8957,10 +8957,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
+        <v>676</v>
+      </c>
+      <c r="B435" t="s">
         <v>677</v>
-      </c>
-      <c r="B435" t="s">
-        <v>678</v>
       </c>
       <c r="C435" t="s">
         <v>7</v>
@@ -8971,10 +8971,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
+        <v>678</v>
+      </c>
+      <c r="B436" t="s">
         <v>679</v>
-      </c>
-      <c r="B436" t="s">
-        <v>680</v>
       </c>
       <c r="C436" t="s">
         <v>7</v>
@@ -8985,10 +8985,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
+        <v>680</v>
+      </c>
+      <c r="B437" t="s">
         <v>681</v>
-      </c>
-      <c r="B437" t="s">
-        <v>682</v>
       </c>
       <c r="C437" t="s">
         <v>7</v>
@@ -8999,10 +8999,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
+        <v>682</v>
+      </c>
+      <c r="B438" t="s">
         <v>683</v>
-      </c>
-      <c r="B438" t="s">
-        <v>684</v>
       </c>
       <c r="C438" t="s">
         <v>7</v>
@@ -9013,10 +9013,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
+        <v>684</v>
+      </c>
+      <c r="B439" t="s">
         <v>685</v>
-      </c>
-      <c r="B439" t="s">
-        <v>686</v>
       </c>
       <c r="C439" t="s">
         <v>7</v>
@@ -9041,10 +9041,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
+        <v>686</v>
+      </c>
+      <c r="B441" t="s">
         <v>687</v>
-      </c>
-      <c r="B441" t="s">
-        <v>688</v>
       </c>
       <c r="C441" t="s">
         <v>7</v>
@@ -9055,10 +9055,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
+        <v>688</v>
+      </c>
+      <c r="B442" t="s">
         <v>689</v>
-      </c>
-      <c r="B442" t="s">
-        <v>690</v>
       </c>
       <c r="C442" t="s">
         <v>7</v>
@@ -9069,10 +9069,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
+        <v>740</v>
+      </c>
+      <c r="B443" t="s">
         <v>741</v>
-      </c>
-      <c r="B443" t="s">
-        <v>742</v>
       </c>
       <c r="C443" t="s">
         <v>205</v>
@@ -9083,10 +9083,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B444" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C444" t="s">
         <v>205</v>
@@ -9097,10 +9097,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
+        <v>604</v>
+      </c>
+      <c r="B445" t="s">
         <v>605</v>
-      </c>
-      <c r="B445" t="s">
-        <v>606</v>
       </c>
       <c r="C445" t="s">
         <v>205</v>
@@ -9111,10 +9111,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
+        <v>606</v>
+      </c>
+      <c r="B446" t="s">
         <v>607</v>
-      </c>
-      <c r="B446" t="s">
-        <v>608</v>
       </c>
       <c r="C446" t="s">
         <v>205</v>
@@ -9125,10 +9125,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
+        <v>608</v>
+      </c>
+      <c r="B447" t="s">
         <v>609</v>
-      </c>
-      <c r="B447" t="s">
-        <v>610</v>
       </c>
       <c r="C447" t="s">
         <v>205</v>
@@ -9139,10 +9139,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
+        <v>610</v>
+      </c>
+      <c r="B448" t="s">
         <v>611</v>
-      </c>
-      <c r="B448" t="s">
-        <v>612</v>
       </c>
       <c r="C448" t="s">
         <v>205</v>
@@ -9153,10 +9153,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
+        <v>612</v>
+      </c>
+      <c r="B449" t="s">
         <v>613</v>
-      </c>
-      <c r="B449" t="s">
-        <v>614</v>
       </c>
       <c r="C449" t="s">
         <v>205</v>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
+        <v>614</v>
+      </c>
+      <c r="B450" t="s">
         <v>615</v>
-      </c>
-      <c r="B450" t="s">
-        <v>616</v>
       </c>
       <c r="C450" t="s">
         <v>205</v>
@@ -9181,10 +9181,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
+        <v>616</v>
+      </c>
+      <c r="B451" t="s">
         <v>617</v>
-      </c>
-      <c r="B451" t="s">
-        <v>618</v>
       </c>
       <c r="C451" t="s">
         <v>205</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
+        <v>618</v>
+      </c>
+      <c r="B452" t="s">
         <v>619</v>
-      </c>
-      <c r="B452" t="s">
-        <v>620</v>
       </c>
       <c r="C452" t="s">
         <v>205</v>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B453" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C453" t="s">
         <v>205</v>
@@ -9223,10 +9223,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B454" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C454" t="s">
         <v>205</v>
@@ -9237,10 +9237,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
+        <v>621</v>
+      </c>
+      <c r="B455" t="s">
         <v>622</v>
-      </c>
-      <c r="B455" t="s">
-        <v>623</v>
       </c>
       <c r="C455" t="s">
         <v>16</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B456" t="s">
         <v>80</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B457" t="s">
         <v>441</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B458" t="s">
         <v>441</v>
@@ -9293,7 +9293,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B459" t="s">
         <v>441</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B460" t="s">
         <v>441</v>
@@ -9321,7 +9321,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B461" t="s">
         <v>441</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B462" t="s">
         <v>442</v>
@@ -9349,7 +9349,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B463" t="s">
         <v>442</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B464" t="s">
         <v>442</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B465" t="s">
         <v>442</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B466" t="s">
         <v>442</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B467" t="s">
         <v>442</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B468" t="s">
         <v>441</v>
@@ -9433,10 +9433,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
+        <v>633</v>
+      </c>
+      <c r="B469" t="s">
         <v>634</v>
-      </c>
-      <c r="B469" t="s">
-        <v>635</v>
       </c>
       <c r="C469" t="s">
         <v>205</v>
@@ -9447,10 +9447,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B470" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C470" t="s">
         <v>205</v>
@@ -9464,7 +9464,7 @@
         <v>206</v>
       </c>
       <c r="B471" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C471" t="s">
         <v>7</v>
@@ -9475,10 +9475,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
+        <v>636</v>
+      </c>
+      <c r="B472" t="s">
         <v>637</v>
-      </c>
-      <c r="B472" t="s">
-        <v>638</v>
       </c>
       <c r="C472" t="s">
         <v>7</v>
@@ -9489,10 +9489,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
+        <v>638</v>
+      </c>
+      <c r="B473" t="s">
         <v>639</v>
-      </c>
-      <c r="B473" t="s">
-        <v>640</v>
       </c>
       <c r="C473" t="s">
         <v>7</v>

--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1704" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2DF33F8-985F-4C86-A728-A6032D4B33A3}"/>
+  <xr:revisionPtr revIDLastSave="1745" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39DA5971-B51A-440C-B254-9B2BCAE0B655}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,11 @@
     <author>tc={FAA363BE-12C3-417C-915B-65F45AE58638}</author>
     <author>tc={79B7D5D7-598C-49BB-930B-2C2F21AF0021}</author>
     <author>tc={94C28270-043D-4F55-BE47-C9283CD3AE92}</author>
+    <author>tc={EA93E8C1-C365-4377-AE48-8B53EA7FB281}</author>
+    <author>tc={991A2DBB-3974-43D5-9589-9BD261710577}</author>
+    <author>tc={2858018A-31FC-4B6C-B200-578BBBBF4F68}</author>
     <author>tc={7563C7EA-E009-4402-AFFE-132040552110}</author>
+    <author>tc={470F9A74-7F13-4208-98C9-6D0E64D6A936}</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{CA867E6F-1549-45FA-9B8F-05BBAD859D47}">
@@ -104,12 +108,44 @@
     USDA code is CHPO12</t>
       </text>
     </comment>
-    <comment ref="A268" authorId="7" shapeId="0" xr:uid="{7563C7EA-E009-4402-AFFE-132040552110}">
+    <comment ref="C246" authorId="7" shapeId="0" xr:uid="{EA93E8C1-C365-4377-AE48-8B53EA7FB281}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marked as both Native &amp; Introduced on USDA Plants</t>
+      </text>
+    </comment>
+    <comment ref="C248" authorId="8" shapeId="0" xr:uid="{991A2DBB-3974-43D5-9589-9BD261710577}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marked as both Native &amp; Introduced on USDA Plants</t>
+      </text>
+    </comment>
+    <comment ref="C254" authorId="9" shapeId="0" xr:uid="{2858018A-31FC-4B6C-B200-578BBBBF4F68}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marked as both Native &amp; Introduced on USDA Plants</t>
+      </text>
+    </comment>
+    <comment ref="A268" authorId="10" shapeId="0" xr:uid="{7563C7EA-E009-4402-AFFE-132040552110}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     USDA code is MILI5</t>
+      </text>
+    </comment>
+    <comment ref="C354" authorId="11" shapeId="0" xr:uid="{470F9A74-7F13-4208-98C9-6D0E64D6A936}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Marked as both Native &amp; Introduced on USDA Plants</t>
       </text>
     </comment>
   </commentList>
@@ -2437,15 +2473,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2460,8 +2496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="381000"/>
-          <a:ext cx="4352925" cy="1590675"/>
+          <a:off x="11292840" y="377190"/>
+          <a:ext cx="4352925" cy="2366010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,6 +2555,24 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> are same ones from Master.xlsx (CodeOriginal). I have noted in a comment when the official USDA Plants code is different.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Native/Unknown assigned when the vast majority of that genus are native according to USDA Plants, especially in Arizona.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Unknown native status assigned to known species when USDA Plants lists them as both native and invasive in the Southwest.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2855,8 +2909,20 @@
   <threadedComment ref="A221" dT="2022-11-21T22:35:26.96" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{94C28270-043D-4F55-BE47-C9283CD3AE92}">
     <text>USDA code is CHPO12</text>
   </threadedComment>
+  <threadedComment ref="C246" dT="2023-09-19T18:01:11.68" personId="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" id="{EA93E8C1-C365-4377-AE48-8B53EA7FB281}">
+    <text>Marked as both Native &amp; Introduced on USDA Plants</text>
+  </threadedComment>
+  <threadedComment ref="C248" dT="2023-09-19T18:01:11.68" personId="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" id="{991A2DBB-3974-43D5-9589-9BD261710577}">
+    <text>Marked as both Native &amp; Introduced on USDA Plants</text>
+  </threadedComment>
+  <threadedComment ref="C254" dT="2023-09-19T18:01:11.68" personId="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" id="{2858018A-31FC-4B6C-B200-578BBBBF4F68}">
+    <text>Marked as both Native &amp; Introduced on USDA Plants</text>
+  </threadedComment>
   <threadedComment ref="A268" dT="2022-11-21T22:58:57.50" personId="{F6D947F2-70EB-49FE-98C8-0B8FA94EE0D0}" id="{7563C7EA-E009-4402-AFFE-132040552110}">
     <text>USDA code is MILI5</text>
+  </threadedComment>
+  <threadedComment ref="C354" dT="2023-09-19T18:01:11.68" personId="{96B0CADE-2D3B-403C-841B-213C5C52B49A}" id="{470F9A74-7F13-4208-98C9-6D0E64D6A936}">
+    <text>Marked as both Native &amp; Introduced on USDA Plants</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2866,8 +2932,8 @@
   <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B351" sqref="B351"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5869,7 +5935,7 @@
         <v>710</v>
       </c>
       <c r="C214" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
         <v>258</v>
@@ -6331,7 +6397,7 @@
         <v>714</v>
       </c>
       <c r="C247" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
         <v>258</v>
@@ -6695,7 +6761,7 @@
         <v>437</v>
       </c>
       <c r="C273" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D273" t="s">
         <v>258</v>
@@ -6709,7 +6775,7 @@
         <v>433</v>
       </c>
       <c r="C274" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D274" t="s">
         <v>258</v>
@@ -6737,7 +6803,7 @@
         <v>435</v>
       </c>
       <c r="C276" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D276" t="s">
         <v>258</v>
@@ -7255,7 +7321,7 @@
         <v>481</v>
       </c>
       <c r="C313" t="s">
-        <v>205</v>
+        <v>690</v>
       </c>
       <c r="D313" t="s">
         <v>2</v>
@@ -7297,7 +7363,7 @@
         <v>720</v>
       </c>
       <c r="C316" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D316" t="s">
         <v>2</v>
@@ -7311,7 +7377,7 @@
         <v>722</v>
       </c>
       <c r="C317" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D317" t="s">
         <v>2</v>
@@ -7395,7 +7461,7 @@
         <v>109</v>
       </c>
       <c r="C323" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D323" t="s">
         <v>2</v>
@@ -7409,7 +7475,7 @@
         <v>724</v>
       </c>
       <c r="C324" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D324" t="s">
         <v>2</v>
@@ -7549,7 +7615,7 @@
         <v>141</v>
       </c>
       <c r="C334" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -7745,7 +7811,7 @@
         <v>160</v>
       </c>
       <c r="C348" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D348" t="s">
         <v>2</v>
@@ -8025,7 +8091,7 @@
         <v>562</v>
       </c>
       <c r="C368" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -8053,7 +8119,7 @@
         <v>563</v>
       </c>
       <c r="C370" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -8067,7 +8133,7 @@
         <v>550</v>
       </c>
       <c r="C371" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D371" t="s">
         <v>2</v>
@@ -8123,7 +8189,7 @@
         <v>558</v>
       </c>
       <c r="C375" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D375" t="s">
         <v>2</v>
@@ -8137,7 +8203,7 @@
         <v>560</v>
       </c>
       <c r="C376" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D376" t="s">
         <v>2</v>
@@ -8165,7 +8231,7 @@
         <v>567</v>
       </c>
       <c r="C378" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D378" t="s">
         <v>2</v>
@@ -8403,7 +8469,7 @@
         <v>586</v>
       </c>
       <c r="C395" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D395" t="s">
         <v>2</v>
@@ -8417,7 +8483,7 @@
         <v>588</v>
       </c>
       <c r="C396" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -8473,7 +8539,7 @@
         <v>595</v>
       </c>
       <c r="C400" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -8515,7 +8581,7 @@
         <v>599</v>
       </c>
       <c r="C403" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D403" t="s">
         <v>2</v>
@@ -9103,7 +9169,7 @@
         <v>605</v>
       </c>
       <c r="C445" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D445" t="s">
         <v>3</v>
@@ -9131,7 +9197,7 @@
         <v>609</v>
       </c>
       <c r="C447" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D447" t="s">
         <v>3</v>
@@ -9201,7 +9267,7 @@
         <v>619</v>
       </c>
       <c r="C452" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D452" t="s">
         <v>3</v>
@@ -9453,7 +9519,7 @@
         <v>632</v>
       </c>
       <c r="C470" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D470" t="s">
         <v>3</v>

--- a/data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1745" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39DA5971-B51A-440C-B254-9B2BCAE0B655}"/>
+  <xr:revisionPtr revIDLastSave="1748" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA96F209-A0CC-45CA-8A47-38142C1D367E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2372,9 +2372,6 @@
     <t>Unknown shrub (Patagonia); mesquite or acacia</t>
   </si>
   <si>
-    <t>Unknown grass seedling (SRER), but most likely ERLE</t>
-  </si>
-  <si>
     <t>Trifolium</t>
   </si>
   <si>
@@ -2382,6 +2379,9 @@
   </si>
   <si>
     <t>Mesquite/Acacia spp.</t>
+  </si>
+  <si>
+    <t>Unknown grass seedling (SRER), but most likely ERLE, spring 2022</t>
   </si>
 </sst>
 </file>
@@ -2932,8 +2932,8 @@
   <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B274" sqref="B274"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7850,7 +7850,7 @@
         <v>519</v>
       </c>
       <c r="B351" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C351" t="s">
         <v>16</v>
@@ -8550,7 +8550,7 @@
         <v>593</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C401" t="s">
         <v>690</v>
@@ -9135,10 +9135,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
+        <v>739</v>
+      </c>
+      <c r="B443" t="s">
         <v>740</v>
-      </c>
-      <c r="B443" t="s">
-        <v>741</v>
       </c>
       <c r="C443" t="s">
         <v>205</v>
